--- a/Expenses/Expensetrendsbudget.xlsx
+++ b/Expenses/Expensetrendsbudget.xlsx
@@ -810,8 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -837,6 +835,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" customBuiltin="1"/>
@@ -854,6 +854,1755 @@
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="93">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1439,1755 +3188,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -3632,15 +3632,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3767,14 +3802,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3901,14 +3972,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4035,14 +4142,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4169,14 +4312,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4302,6 +4481,52 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -4421,6 +4646,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -4540,6 +4814,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -4659,6 +4982,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -4778,6 +5150,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -4897,6 +5318,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5016,6 +5486,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5135,6 +5654,58 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5254,6 +5825,58 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5373,6 +5996,58 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5492,6 +6167,58 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5611,6 +6338,58 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5730,6 +6509,58 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5849,6 +6680,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5968,6 +6848,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -6087,6 +7016,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -6206,6 +7184,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -6325,6 +7352,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -6438,33 +7514,55 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="392990344"/>
-        <c:axId val="392986424"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="484560280"/>
+        <c:axId val="484562240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="392990344"/>
+        <c:axId val="484560280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392986424"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484562240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6472,7 +7570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392986424"/>
+        <c:axId val="484562240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,14 +7578,16 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                  <a:alpha val="30000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0;;" sourceLinked="0"/>
@@ -6495,62 +7595,77 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
+          <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392990344"/>
+        <c:crossAx val="484560280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="tr"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86571588106102315"/>
-          <c:y val="5.6239046947426458E-2"/>
-          <c:w val="0.12547536028379558"/>
-          <c:h val="0.87517035006592592"/>
+          <c:x val="0.86207014116939074"/>
+          <c:y val="2.2843607107523228E-2"/>
+          <c:w val="0.13211787646028919"/>
+          <c:h val="0.9771563928924768"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" kern="0" spc="-10" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -6562,17 +7677,583 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6614,44 +8295,44 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O28" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A4:O27"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="18" dataCellStyle="Table details"/>
-    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="17" dataCellStyle="Table numbers">
+    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="84" dataCellStyle="Table details"/>
+    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="83" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="16" dataCellStyle="Table numbers">
+    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="82" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Table numbers">
+    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="81" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Table numbers">
+    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="80" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Table numbers">
+    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="79" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Table numbers">
+    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="78" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="11" dataCellStyle="Table numbers">
+    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="77" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="10" dataCellStyle="Table numbers">
+    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="76" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="9" dataCellStyle="Table numbers">
+    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="75" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Table numbers">
+    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="74" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="7" dataCellStyle="Table numbers">
+    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="73" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Table numbers">
+    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="72" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="5" dataCellStyle="Table numbers">
+    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="71" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="Trend" dataCellStyle="Normal"/>
@@ -6669,11 +8350,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="ExpSep" displayName="ExpSep" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="38" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="37" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="36" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="78" totalsRowDxfId="35" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="34" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="23" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="22" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="21" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="18" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6688,11 +8369,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ExpOct" displayName="ExpOct" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="33" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="32" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="31" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="77" totalsRowDxfId="30" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="29" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="17" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="16" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="12" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6707,11 +8388,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ExpNov" displayName="ExpNov" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="28" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="27" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="26" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="76" totalsRowDxfId="25" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="24" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="11" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="10" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="9" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="6" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6726,11 +8407,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ExpDec" displayName="ExpDec" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="23" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="22" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="21" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="75" totalsRowDxfId="20" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="19" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="5" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="4" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="0" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6751,11 +8432,11 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="4" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="3" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" totalsRowDxfId="1" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="0" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="70" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="69" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="68" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" totalsRowDxfId="67" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="66" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6770,11 +8451,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExpFeb" displayName="ExpFeb" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="73" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="72" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="71" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="84" totalsRowDxfId="70" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="69" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="65" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="64" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="63" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="60" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6789,11 +8470,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ExpMar" displayName="ExpMar" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="68" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="67" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="66" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="83" totalsRowDxfId="65" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="64" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="59" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="58" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="57" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="54" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6808,11 +8489,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ExpApr" displayName="ExpApr" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="63" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="62" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="61" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="82" totalsRowDxfId="60" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="59" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="53" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="52" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="51" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="48" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6827,11 +8508,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ExpMay" displayName="ExpMay" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="58" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="57" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="56" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="74" totalsRowDxfId="55" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="54" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="47" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="46" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="45" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="42" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6846,11 +8527,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ExpJun" displayName="ExpJun" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="53" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="52" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="51" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="81" totalsRowDxfId="50" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="49" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="41" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="40" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="39" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="36" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6865,11 +8546,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ExpJul" displayName="ExpJul" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="48" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="47" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="46" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="80" totalsRowDxfId="45" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="44" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="35" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="34" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="33" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="30" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6884,11 +8565,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ExpAug" displayName="ExpAug" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="43" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="42" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="41" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="79" totalsRowDxfId="40" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="39" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="29" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="28" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="27" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="24" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -7268,11 +8949,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -7470,11 +9151,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -7672,11 +9353,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -7874,11 +9555,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -8076,11 +9757,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -8267,8 +9948,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9419,345 +11100,345 @@
       <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="32">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>164</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="32">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="32">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="32">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="32">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="32">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="32">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="32">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="32">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="32">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="32">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="32">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23" s="32">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>164</v>
       </c>
-      <c r="O23" s="35"/>
+      <c r="O23" s="33"/>
     </row>
     <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="32">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>40</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="32">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="32">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="32">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="32">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="32">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="32">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="32">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="32">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="32">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="32">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N24" s="34">
+      <c r="N24" s="32">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>40</v>
       </c>
-      <c r="O24" s="35"/>
+      <c r="O24" s="33"/>
     </row>
     <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="32">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="32">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="32">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="32">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="32">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="32">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="32">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="32">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="32">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="32">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="32">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="32">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25" s="32">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>0</v>
       </c>
-      <c r="O25" s="35"/>
+      <c r="O25" s="33"/>
     </row>
     <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="32">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>300</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="32">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="32">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="32">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="32">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="32">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="32">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="32">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="32">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="32">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="32">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26" s="32">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>300</v>
       </c>
-      <c r="O26" s="35"/>
+      <c r="O26" s="33"/>
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="32">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>220</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="32">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="32">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="32">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="32">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="32">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="32">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="32">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="32">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="32">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="32">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="32">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="32">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>220</v>
       </c>
-      <c r="O27" s="35"/>
+      <c r="O27" s="33"/>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Jan])</f>
         <v>86597</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Feb])</f>
         <v>46906</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Mar])</f>
         <v>46906</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Apr])</f>
         <v>46906</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[May])</f>
         <v>46906</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Jun])</f>
         <v>46906</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Jul])</f>
         <v>46906</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Aug])</f>
         <v>46906</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Sep])</f>
         <v>46906</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Oct])</f>
         <v>46906</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Nov])</f>
         <v>46906</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Dec])</f>
         <v>46906</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Total])</f>
         <v>602563</v>
       </c>
@@ -9816,6 +11497,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>summary!B28:M28</xm:f>
+              <xm:sqref>O28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" last="1" negative="1">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="6" tint="-0.499984740745262"/>
@@ -9920,22 +11617,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="7"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>summary!B28:M28</xm:f>
-              <xm:sqref>O28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -9950,8 +11631,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9961,11 +11642,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="20" t="s">
         <v>40</v>
       </c>
@@ -10498,7 +12179,7 @@
       <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31">
+      <c r="A35" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,9)</f>
         <v>43109</v>
       </c>
@@ -10514,7 +12195,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31">
+      <c r="A36" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
@@ -10522,7 +12203,7 @@
       <c r="C36" s="24">
         <v>36</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="27" t="s">
@@ -10530,7 +12211,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31">
+      <c r="A37" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
@@ -10538,15 +12219,15 @@
       <c r="C37" s="24">
         <v>36</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="36" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31">
+      <c r="A38" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
@@ -10562,7 +12243,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31">
+      <c r="A39" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
@@ -10578,7 +12259,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31">
+      <c r="A40" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
@@ -10594,7 +12275,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31">
+      <c r="A41" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
@@ -10610,7 +12291,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31">
+      <c r="A42" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
@@ -10626,7 +12307,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31">
+      <c r="A43" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
@@ -10642,7 +12323,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31">
+      <c r="A44" s="29">
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
@@ -10700,16 +12381,16 @@
       <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="32">
+      <c r="B51" s="28"/>
+      <c r="C51" s="30">
         <f>SUBTOTAL(109,ExpJan[Amount])</f>
         <v>2188</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10759,7 +12440,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10769,11 +12450,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="20" t="s">
         <v>40</v>
       </c>
@@ -10971,11 +12652,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -11173,11 +12854,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="20" t="s">
         <v>40</v>
       </c>
@@ -11375,11 +13056,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -11577,11 +13258,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -11779,11 +13460,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>

--- a/Expenses/Expensetrendsbudget.xlsx
+++ b/Expenses/Expensetrendsbudget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7428" tabRatio="784" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7428" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tips" sheetId="16" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="139">
   <si>
     <t>Expenses</t>
   </si>
@@ -570,7 +570,109 @@
     <t>Provision rava, flour, anil semmea</t>
   </si>
   <si>
-    <t>Enterment</t>
+    <t>Sodexo</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Paytm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICICI </t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Milk &amp; Curd</t>
+  </si>
+  <si>
+    <t>Monthly amt</t>
+  </si>
+  <si>
+    <t>IRCTC Ticket</t>
+  </si>
+  <si>
+    <t>Cycle selling amt</t>
+  </si>
+  <si>
+    <t>TNEB</t>
+  </si>
+  <si>
+    <t>Enterinment</t>
+  </si>
+  <si>
+    <t>Dosai</t>
+  </si>
+  <si>
+    <t>Sugarcane Juice</t>
+  </si>
+  <si>
+    <t>Kotak</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Milk,Curd</t>
+  </si>
+  <si>
+    <t>Non-Veg Item</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Briyani Rice</t>
+  </si>
+  <si>
+    <t>Electric items</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Gift Items</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Bike Fuel</t>
+  </si>
+  <si>
+    <t>napkines, grapes</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Cakes and Snacks</t>
+  </si>
+  <si>
+    <t>Chicken for cooking</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Outside Food</t>
+  </si>
+  <si>
+    <t>Dominos</t>
+  </si>
+  <si>
+    <t>Snacks for home</t>
+  </si>
+  <si>
+    <t>meat for home</t>
   </si>
 </sst>
 </file>
@@ -580,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +755,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -787,7 +902,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,14 +924,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFill="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -826,14 +934,21 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -854,6 +969,590 @@
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="93">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2604,590 +3303,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -3746,37 +3861,37 @@
                   <c:v>24507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3916,37 +4031,37 @@
                   <c:v>15247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,37 +4201,37 @@
                   <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,37 +4371,37 @@
                   <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4426,37 +4541,37 @@
                   <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4476,7 +4591,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HDFC CC</c:v>
+                  <c:v>TNEB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4593,7 +4708,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11319</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4641,7 +4756,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HSBC CC</c:v>
+                  <c:v>HDFC CC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4761,7 +4876,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11319</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4809,7 +4924,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SBI CC</c:v>
+                  <c:v>HSBC CC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4977,7 +5092,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kotak CC</c:v>
+                  <c:v>SBI CC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5097,7 +5212,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5145,7 +5260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Citi CC</c:v>
+                  <c:v>Kotak CC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5265,7 +5380,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5313,7 +5428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bescom</c:v>
+                  <c:v>Citi CC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5433,7 +5548,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5481,7 +5596,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Airtel Digitial</c:v>
+                  <c:v>Bescom</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5601,7 +5716,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>330</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5649,7 +5764,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ACCTV</c:v>
+                  <c:v>Airtel Digitial</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5772,7 +5887,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5820,7 +5935,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Housing Expense</c:v>
+                  <c:v>ACCTV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5943,7 +6058,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>870</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5991,7 +6106,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>My Expense</c:v>
+                  <c:v>Housing Expense</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6114,7 +6229,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1668</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6162,7 +6277,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wife Expense</c:v>
+                  <c:v>My Expense</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6285,7 +6400,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>2737</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6333,7 +6448,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vegetables</c:v>
+                  <c:v>Wife Expense</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6456,7 +6571,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>594</c:v>
+                  <c:v>1371.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6504,7 +6619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Provision</c:v>
+                  <c:v>Vegetables</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6627,7 +6742,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3579</c:v>
+                  <c:v>1087</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6675,7 +6790,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Milk</c:v>
+                  <c:v>Provision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6795,7 +6910,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>164</c:v>
+                  <c:v>4503</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6843,7 +6958,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kids Education</c:v>
+                  <c:v>Milk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6963,7 +7078,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7011,7 +7126,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Brower Amount Return</c:v>
+                  <c:v>Kids Education</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7131,7 +7246,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7179,7 +7294,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Books</c:v>
+                  <c:v>Brower Amount Return</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7299,7 +7414,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7347,7 +7462,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Enterment</c:v>
+                  <c:v>Books</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7467,7 +7582,175 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>220</c:v>
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enterinment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summary!$B$4:$O$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summary!$B$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summary!$B$28:$O$28</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summary!$B$28:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7516,11 +7799,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="484560280"/>
-        <c:axId val="484562240"/>
+        <c:axId val="387970704"/>
+        <c:axId val="387971096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="484560280"/>
+        <c:axId val="387970704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7562,7 +7845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484562240"/>
+        <c:crossAx val="387971096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7570,7 +7853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484562240"/>
+        <c:axId val="387971096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7620,7 +7903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484560280"/>
+        <c:crossAx val="387970704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7640,8 +7923,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.86207014116939074"/>
           <c:y val="2.2843607107523228E-2"/>
-          <c:w val="0.13211787646028919"/>
-          <c:h val="0.9771563928924768"/>
+          <c:w val="9.8214645966754999E-2"/>
+          <c:h val="0.8699538463411961"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8292,47 +8575,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O28" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A4:O27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O33" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A4:O32"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="84" dataCellStyle="Table details"/>
-    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="83" dataCellStyle="Table numbers">
+    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="18" dataCellStyle="Table details"/>
+    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="17" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="82" dataCellStyle="Table numbers">
+    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="16" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="81" dataCellStyle="Table numbers">
+    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="80" dataCellStyle="Table numbers">
+    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="79" dataCellStyle="Table numbers">
+    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="78" dataCellStyle="Table numbers">
+    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="77" dataCellStyle="Table numbers">
+    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="11" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="76" dataCellStyle="Table numbers">
+    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="10" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="75" dataCellStyle="Table numbers">
+    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="9" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="74" dataCellStyle="Table numbers">
+    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="73" dataCellStyle="Table numbers">
+    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="7" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="72" dataCellStyle="Table numbers">
+    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="71" dataCellStyle="Table numbers">
+    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="5" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="Trend" dataCellStyle="Normal"/>
@@ -8350,11 +8633,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="ExpSep" displayName="ExpSep" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="23" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="22" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="21" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="18" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="42" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="41" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="40" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="37" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8369,11 +8652,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ExpOct" displayName="ExpOct" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="17" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="16" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="12" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="36" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="35" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="34" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="31" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8388,11 +8671,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ExpNov" displayName="ExpNov" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="11" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="10" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="9" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="6" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="30" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="29" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="28" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="25" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8407,11 +8690,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ExpDec" displayName="ExpDec" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="5" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="4" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="0" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="24" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="23" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="22" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="19" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8423,20 +8706,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ExpJan" displayName="ExpJan" ref="A2:E51" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A2:E50">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="My Expense"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ExpJan" displayName="ExpJan" ref="A2:E98" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A2:E97"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="70" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="69" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="68" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" totalsRowDxfId="67" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="66" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="4" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="3" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" totalsRowDxfId="1" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="0" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8451,11 +8728,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExpFeb" displayName="ExpFeb" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="65" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="64" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="63" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="60" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="84" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="83" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="82" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="79" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8470,11 +8747,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ExpMar" displayName="ExpMar" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="59" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="58" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="57" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="54" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="78" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="77" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="76" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="73" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8489,11 +8766,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ExpApr" displayName="ExpApr" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="53" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="52" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="51" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="48" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="72" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="71" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="70" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="67" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8508,11 +8785,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ExpMay" displayName="ExpMay" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="47" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="46" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="45" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="42" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="66" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="65" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="64" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="61" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8527,11 +8804,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ExpJun" displayName="ExpJun" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="41" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="40" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="39" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="36" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="60" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="59" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="58" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="55" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8546,11 +8823,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ExpJul" displayName="ExpJul" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="35" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="34" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="33" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="30" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="54" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="53" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="52" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="49" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8565,11 +8842,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ExpAug" displayName="ExpAug" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="29" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="28" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="27" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="24" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="48" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="47" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="46" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="43" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8858,13 +9135,13 @@
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="str">
+      <c r="A8" s="20" t="str">
         <f>ROW(A2)&amp;". Place your cell pointer in the last cell above the Total row, such as the total for the last expense, and then press the Tab key."</f>
         <v>2. Place your cell pointer in the last cell above the Total row, such as the total for the last expense, and then press the Tab key.</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="str">
+      <c r="A9" s="20" t="str">
         <f>ROW(A3)&amp;". Right-click in the table and on the pop up menu, point to Insert, and then click Table Rows Above or Table Rows Below."</f>
         <v>3. Right-click in the table and on the pop up menu, point to Insert, and then click Table Rows Above or Table Rows Below.</v>
       </c>
@@ -8939,7 +9216,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8987,9 +9264,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9005,7 +9282,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -9016,7 +9293,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -9027,7 +9304,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -9038,7 +9315,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -9055,43 +9332,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>SUBTOTAL(109,ExpAug[Amount])</f>
-        <v>46906</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9141,7 +9418,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9189,9 +9466,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9207,7 +9484,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -9218,7 +9495,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -9229,7 +9506,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -9240,7 +9517,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -9257,43 +9534,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>SUBTOTAL(109,ExpSep[Amount])</f>
-        <v>46906</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9343,7 +9620,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9391,9 +9668,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9409,7 +9686,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -9420,7 +9697,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -9431,7 +9708,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -9442,7 +9719,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -9459,43 +9736,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>SUBTOTAL(109,ExpOct[Amount])</f>
-        <v>46906</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9545,7 +9822,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9593,9 +9870,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9611,7 +9888,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -9622,7 +9899,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -9633,7 +9910,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -9644,7 +9921,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -9661,43 +9938,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>SUBTOTAL(109,ExpNov[Amount])</f>
-        <v>46906</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9747,7 +10024,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9795,9 +10072,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9813,7 +10090,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -9824,7 +10101,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -9835,7 +10112,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -9846,7 +10123,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -9863,43 +10140,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>SUBTOTAL(109,ExpDec[Amount])</f>
-        <v>46906</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9946,10 +10223,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9959,6 +10236,7 @@
     <col min="15" max="15" width="12.6640625" customWidth="1"/>
     <col min="16" max="16" width="9.109375" customWidth="1"/>
     <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
@@ -9969,43 +10247,43 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10058,7 +10336,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3">
@@ -10067,55 +10345,55 @@
       </c>
       <c r="C5" s="3">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>354507</v>
+        <v>24507</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="3">
@@ -10124,55 +10402,55 @@
       </c>
       <c r="C6" s="3">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>182964</v>
+        <v>15247</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="3">
@@ -10181,55 +10459,55 @@
       </c>
       <c r="C7" s="3">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>8052</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="3">
@@ -10238,55 +10516,55 @@
       </c>
       <c r="C8" s="3">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>4788</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="3">
@@ -10295,1152 +10573,1442 @@
       </c>
       <c r="C9" s="3">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>7068</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="29">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>1010</v>
+      </c>
+      <c r="C10" s="29">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="29">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="29">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="29">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="29">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>1010</v>
+      </c>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>11319</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C11" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D11" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E11" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F11" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G11" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H11" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I11" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J11" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K11" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L11" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M11" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N11" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>11319</v>
       </c>
-      <c r="O10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" s="3">
-        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="24">
-        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="24">
-        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
-        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="24">
-        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
-        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
-        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="24">
-        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="24">
-        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="24">
-        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="26"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>54</v>
       </c>
       <c r="B12" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>0</v>
       </c>
-      <c r="O12" s="26"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>55</v>
+      <c r="A13" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="23">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="23">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="23">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="23">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="23">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>25000</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C14" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D14" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E14" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F14" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G14" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H14" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I14" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J14" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K14" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L14" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M14" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N14" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>25000</v>
       </c>
-      <c r="O13" s="26"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" s="3">
-        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="24">
-        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="24">
-        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="24">
-        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
-        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="24">
-        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
-        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
-        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
-        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="24">
-        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="26"/>
-    </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="B15" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="23">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="23">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="23">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="23">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="23">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="23">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="23">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="23">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>1000</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C16" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D16" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E16" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F16" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G16" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H16" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I16" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J16" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K16" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L16" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M16" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N16" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>1000</v>
       </c>
-      <c r="O15" s="26"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>330</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C17" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D17" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E17" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F17" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G17" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H17" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I17" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J17" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K17" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L17" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M17" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N17" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>330</v>
       </c>
-      <c r="O16" s="26"/>
-    </row>
-    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="3">
-        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="24">
-        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
-        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
-        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="24">
-        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="24">
-        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="24">
-        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="24">
-        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="24">
-        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="24">
-        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="26"/>
-    </row>
-    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>62</v>
       </c>
       <c r="B18" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>870</v>
-      </c>
-      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="C18" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>870</v>
-      </c>
-      <c r="O18" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>60</v>
+      <c r="A19" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="B19" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>1668</v>
-      </c>
-      <c r="C19" s="24">
+        <v>1920</v>
+      </c>
+      <c r="C19" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>1668</v>
-      </c>
-      <c r="O19" s="26"/>
+        <v>1920</v>
+      </c>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>63</v>
+      <c r="A20" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="B20" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>100</v>
-      </c>
-      <c r="C20" s="24">
+        <v>2737</v>
+      </c>
+      <c r="C20" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>100</v>
-      </c>
-      <c r="O20" s="26"/>
+        <v>2737</v>
+      </c>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>64</v>
+      <c r="A21" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="B21" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>594</v>
-      </c>
-      <c r="C21" s="24">
+        <v>1371.8</v>
+      </c>
+      <c r="C21" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>594</v>
-      </c>
-      <c r="O21" s="26"/>
+        <v>1371.8</v>
+      </c>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>61</v>
+      <c r="A22" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="B22" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>3579</v>
-      </c>
-      <c r="C22" s="24">
+        <v>1087</v>
+      </c>
+      <c r="C22" s="23">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="23">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="23">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="23">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="23">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="23">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22" s="23">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>3579</v>
-      </c>
-      <c r="O22" s="26"/>
+        <v>1087</v>
+      </c>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="3">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>4503</v>
+      </c>
+      <c r="C23" s="23">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="23">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="23">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="23">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="23">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="23">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="23">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="23">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="23">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="23">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="23">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>4503</v>
+      </c>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B24" s="29">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>164</v>
-      </c>
-      <c r="C23" s="32">
+        <v>457</v>
+      </c>
+      <c r="C24" s="29">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D24" s="29">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E24" s="29">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F24" s="29">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G24" s="29">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H24" s="29">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I24" s="29">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J24" s="29">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K24" s="29">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L24" s="29">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M24" s="29">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N23" s="32">
+      <c r="N24" s="29">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>164</v>
-      </c>
-      <c r="O23" s="33"/>
-    </row>
-    <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B25" s="29">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>40</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C25" s="29">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D25" s="29">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E25" s="29">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F25" s="29">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G25" s="29">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H25" s="29">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I25" s="29">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J25" s="29">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K25" s="29">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L25" s="29">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M25" s="29">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N25" s="29">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>40</v>
       </c>
-      <c r="O24" s="33"/>
-    </row>
-    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="O25" s="30"/>
+    </row>
+    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B26" s="29">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C26" s="29">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D26" s="29">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E26" s="29">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F26" s="29">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G26" s="29">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H26" s="29">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I26" s="29">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J26" s="29">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K26" s="29">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L26" s="29">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M26" s="29">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N26" s="29">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>0</v>
       </c>
-      <c r="O25" s="33"/>
-    </row>
-    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B27" s="29">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>300</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C27" s="29">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D27" s="29">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E27" s="29">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F27" s="29">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G27" s="29">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H27" s="29">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I27" s="29">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J27" s="29">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K27" s="29">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L27" s="29">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M27" s="29">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N27" s="29">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>300</v>
       </c>
-      <c r="O26" s="33"/>
-    </row>
-    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="32">
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="29">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>220</v>
-      </c>
-      <c r="C27" s="32">
+        <v>420</v>
+      </c>
+      <c r="C28" s="29">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D28" s="29">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E28" s="29">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F28" s="29">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G28" s="29">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H28" s="29">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I28" s="29">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J28" s="29">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K28" s="29">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L28" s="29">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M28" s="29">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N28" s="29">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>220</v>
-      </c>
-      <c r="O27" s="33"/>
-    </row>
-    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="29">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>750</v>
+      </c>
+      <c r="C29" s="29">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="29">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="29">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="29">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="29">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="29">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="29">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="29">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="29">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="29">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="29">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="29">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>750</v>
+      </c>
+      <c r="O29" s="30"/>
+    </row>
+    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="29">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>223</v>
+      </c>
+      <c r="C30" s="29">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="29">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="29">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="29">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="29">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="29">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="29">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="29">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="29">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="29">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="29">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="29">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>223</v>
+      </c>
+      <c r="O30" s="30"/>
+    </row>
+    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="29">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>1180</v>
+      </c>
+      <c r="C31" s="29">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="29">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="29">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="29">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="29">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="29">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="29">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="29">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="29">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="29">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="29">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="29">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>1180</v>
+      </c>
+      <c r="O31" s="30"/>
+    </row>
+    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="29">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>841</v>
+      </c>
+      <c r="C32" s="29">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="29">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="29">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="29">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="29">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="29">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="29">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="29">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="29">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>841</v>
+      </c>
+      <c r="O32" s="30"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Jan])</f>
-        <v>86597</v>
-      </c>
-      <c r="C28" s="35">
+        <v>95901.8</v>
+      </c>
+      <c r="C33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Feb])</f>
-        <v>46906</v>
-      </c>
-      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+      <c r="D33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Mar])</f>
-        <v>46906</v>
-      </c>
-      <c r="E28" s="35">
+        <v>0</v>
+      </c>
+      <c r="E33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Apr])</f>
-        <v>46906</v>
-      </c>
-      <c r="F28" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[May])</f>
-        <v>46906</v>
-      </c>
-      <c r="G28" s="35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Jun])</f>
-        <v>46906</v>
-      </c>
-      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="H33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Jul])</f>
-        <v>46906</v>
-      </c>
-      <c r="I28" s="35">
+        <v>0</v>
+      </c>
+      <c r="I33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Aug])</f>
-        <v>46906</v>
-      </c>
-      <c r="J28" s="35">
+        <v>0</v>
+      </c>
+      <c r="J33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Sep])</f>
-        <v>46906</v>
-      </c>
-      <c r="K28" s="35">
+        <v>0</v>
+      </c>
+      <c r="K33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Oct])</f>
-        <v>46906</v>
-      </c>
-      <c r="L28" s="35">
+        <v>0</v>
+      </c>
+      <c r="L33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Nov])</f>
-        <v>46906</v>
-      </c>
-      <c r="M28" s="35">
+        <v>0</v>
+      </c>
+      <c r="M33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Dec])</f>
-        <v>46906</v>
-      </c>
-      <c r="N28" s="35">
+        <v>0</v>
+      </c>
+      <c r="N33" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Total])</f>
-        <v>602563</v>
+        <v>95901.8</v>
       </c>
     </row>
   </sheetData>
@@ -11486,7 +12054,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="48" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -11497,22 +12065,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="7"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>summary!B28:M28</xm:f>
-              <xm:sqref>O28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" last="1" negative="1">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="6" tint="-0.499984740745262"/>
@@ -11615,6 +12167,42 @@
               <xm:f>summary!B27:M27</xm:f>
               <xm:sqref>O27</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>summary!B28:M28</xm:f>
+              <xm:sqref>O28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>summary!B29:M29</xm:f>
+              <xm:sqref>O29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>summary!B30:M30</xm:f>
+              <xm:sqref>O30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>summary!B31:M31</xm:f>
+              <xm:sqref>O31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>summary!B32:M32</xm:f>
+              <xm:sqref>O32</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>summary!B33:M33</xm:f>
+              <xm:sqref>O33</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
@@ -11629,10 +12217,10 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11647,10 +12235,10 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11671,147 +12259,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="C3" s="3">
         <v>24507</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,5)</f>
         <v>43105</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="C4" s="3">
         <v>15247</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C5" s="3">
         <v>671</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,16)</f>
         <v>43116</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="3">
         <v>399</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="C7" s="3">
         <v>589</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,7)</f>
         <v>43107</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="C8" s="3">
         <v>11319</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,2)</f>
         <v>43102</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24">
+      <c r="B9" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="23">
         <v>25000</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,12)</f>
         <v>43112</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24">
+      <c r="B10" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="23">
         <v>1000</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
         <v>43101</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24">
+      <c r="B11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="23">
         <v>330</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11820,14 +12426,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,5)</f>
         <v>43105</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24">
+      <c r="B12" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="23">
         <v>46</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11836,14 +12444,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,6)</f>
         <v>43106</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24">
+      <c r="B13" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="23">
         <v>150</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11852,14 +12462,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,7)</f>
         <v>43107</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24">
+      <c r="B14" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="23">
         <v>310</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -11868,15 +12480,17 @@
         <f ca="1">DATE(YEAR(TODAY()),1,8)</f>
         <v>43108</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24">
+      <c r="B15" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="23">
         <f>92+16</f>
         <v>108</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>77</v>
       </c>
     </row>
@@ -11885,14 +12499,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,9)</f>
         <v>43109</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24">
+      <c r="B16" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="23">
         <v>190</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>78</v>
       </c>
     </row>
@@ -11901,14 +12517,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24">
+      <c r="B17" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="23">
         <v>340</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>79</v>
       </c>
     </row>
@@ -11917,14 +12535,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24">
+      <c r="B18" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="23">
         <v>10</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>80</v>
       </c>
     </row>
@@ -11933,14 +12553,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,12)</f>
         <v>43112</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24">
+      <c r="B19" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="23">
         <v>114</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>81</v>
       </c>
     </row>
@@ -11949,14 +12571,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,12)</f>
         <v>43112</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24">
+      <c r="B20" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="23">
         <v>300</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>82</v>
       </c>
     </row>
@@ -11965,14 +12589,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,12)</f>
         <v>43112</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24">
+      <c r="B21" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="23">
         <v>220</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>83</v>
       </c>
     </row>
@@ -11981,14 +12607,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24">
+      <c r="B22" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="23">
         <v>80</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -11997,138 +12625,156 @@
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24">
+      <c r="B23" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="23">
         <v>170</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24">
+      <c r="B24" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="23">
         <v>100</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24">
+      <c r="B25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="23">
         <v>750</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24">
+      <c r="B26" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="23">
         <v>120</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,4)</f>
         <v>43104</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24">
+      <c r="B27" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="23">
         <v>52</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,4)</f>
         <v>43104</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24">
+      <c r="B28" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="23">
         <v>841</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,5)</f>
         <v>43105</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24">
+      <c r="B29" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="23">
         <v>100</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,6)</f>
         <v>43106</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24">
+      <c r="B30" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="23">
         <v>15</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,6)</f>
         <v>43106</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24">
+      <c r="B31" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="23">
         <v>150</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12137,275 +12783,1101 @@
         <f ca="1">DATE(YEAR(TODAY()),1,7)</f>
         <v>43107</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24">
+      <c r="B32" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="23">
         <v>150</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,7)</f>
         <v>43107</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24">
+      <c r="B33" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="23">
         <v>1010</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,8)</f>
         <v>43108</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24">
+      <c r="B34" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="23">
         <v>82</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,9)</f>
         <v>43109</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24">
+      <c r="B35" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="23">
         <v>56</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24">
+      <c r="B36" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="23">
         <v>36</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
+        <v>43110</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="29">
+        <v>280</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24">
+      <c r="B38" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="23">
         <v>36</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D38" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E38" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24">
+      <c r="B39" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="23">
         <v>40</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24">
+      <c r="B40" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="23">
         <v>728</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24">
+      <c r="B41" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="23">
         <v>500</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E41" s="26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24">
+      <c r="B42" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="23">
         <v>127</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D42" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24">
+      <c r="B43" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="23">
         <v>36</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24">
+      <c r="B44" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="23">
         <v>500</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D44" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27">
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24">
+      <c r="B45" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="29">
+        <v>300</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
+        <v>43115</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="23">
         <v>68</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D46" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,17)</f>
+        <v>43117</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="23">
+        <v>160</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,17)</f>
+        <v>43117</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="23">
+        <v>34</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
+        <v>43118</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="23">
+        <v>58</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
+        <v>43101</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
+        <v>43118</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="23">
+        <v>371.8</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
+        <v>43118</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="23">
+        <v>0</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
+        <v>43118</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="29">
+        <v>1010</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
+        <v>43118</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="29">
+        <f>104+34</f>
+        <v>138</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
+        <v>43118</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="29">
+        <v>100</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,19)</f>
+        <v>43119</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="29">
+        <v>30</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,19)</f>
+        <v>43119</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="29">
+        <v>486</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,19)</f>
+        <v>43119</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="29">
+        <v>18</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,20)</f>
+        <v>43120</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="29">
+        <v>313</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="27">
+        <f t="shared" ref="A60" ca="1" si="0">DATE(YEAR(TODAY()),1,20)</f>
+        <v>43120</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="29">
+        <v>340</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,21)</f>
+        <v>43121</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="29">
+        <v>57</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,21)</f>
+        <v>43121</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="29">
+        <v>450</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="27">
+        <f t="shared" ref="A63:A67" ca="1" si="1">DATE(YEAR(TODAY()),1,21)</f>
+        <v>43121</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="29">
+        <v>100</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>43121</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="29">
+        <v>297</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>43121</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="29">
+        <v>550</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>43121</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="29">
+        <v>500</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>43121</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="29">
+        <v>223</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="28"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
+        <v>43122</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="29">
+        <v>300</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
+        <v>43122</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="29">
+        <v>160</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
+        <v>43122</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="29">
+        <v>15</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
+        <v>43122</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="29">
+        <v>106</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
+        <v>43122</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="29">
+        <v>10</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,23)</f>
+        <v>43123</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="29">
+        <v>67</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,23)</f>
+        <v>43123</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="29">
+        <v>52</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,23)</f>
+        <v>43123</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="29">
+        <v>230</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,24)</f>
+        <v>43124</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="29">
+        <v>150</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,24)</f>
+        <v>43124</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="29">
+        <v>30</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,25)</f>
+        <v>43125</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="29">
+        <v>57</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,25)</f>
+        <v>43125</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="29">
+        <v>15</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,25)</f>
+        <v>43125</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="29">
+        <v>206</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,26)</f>
+        <v>43126</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="29">
+        <v>200</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,26)</f>
+        <v>43126</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="29">
+        <v>140</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,27)</f>
+        <v>43127</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="29">
+        <v>165</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,27)</f>
+        <v>43127</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="29">
+        <v>36</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,27)</f>
+        <v>43127</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="29">
+        <v>300</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,28)</f>
+        <v>43128</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="29">
+        <v>150</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,28)</f>
+        <v>43128</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="29">
+        <v>90</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="28"/>
+    </row>
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,28)</f>
+        <v>43128</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="29">
+        <v>10</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="27">
+        <f ca="1">DATE(YEAR(TODAY()),1,28)</f>
+        <v>43128</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+    </row>
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="21"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+    </row>
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="21"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+    </row>
+    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="21"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+    </row>
+    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="21"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+    </row>
+    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="21"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+    </row>
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="21"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+    </row>
+    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="21"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+    </row>
+    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="21"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+    </row>
+    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="30">
+      <c r="B98" s="32"/>
+      <c r="C98" s="33">
         <f>SUBTOTAL(109,ExpJan[Amount])</f>
-        <v>2188</v>
-      </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+        <v>95901.8</v>
+      </c>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D50">
-      <formula1>ExpenseCategories</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C50">
-      <formula1>ISNUMBER($C3)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in January needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A50">
-      <formula1>MONTH($A3)=1</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Detailed expenses are outlined in the table in this worksheet. Navigation hyperlinks to the summary worksheet and the tips worksheet respectively are in cells D1 and E1" sqref="A1:C1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation hyperlink to the summary worksheet" sqref="D1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation hyperlink to the tips worksheet" sqref="E1"/>
@@ -12414,6 +13886,15 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the Amount of the expense in this column" sqref="C2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A list of expense categories automatically populated from the Expenses column in the Expense Summary table in the summary worksheet. ALT+DOWN ARROW to navigate the list. ENTER to select a Category" sqref="D2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a description of the expense in this column" sqref="E2"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D97">
+      <formula1>ExpenseCategories</formula1>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C97">
+      <formula1>ISNUMBER($C3)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in January needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A97">
+      <formula1>MONTH($A3)=1</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D1" location="summary!A1" tooltip="Select to view summary" display="Summary"/>
@@ -12440,7 +13921,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12455,10 +13936,10 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12484,13 +13965,11 @@
         <f ca="1">DATE(YEAR(TODAY()),2,3)</f>
         <v>43134</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -12502,11 +13981,9 @@
         <f ca="1">DATE(YEAR(TODAY()),2,4)</f>
         <v>43135</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -12517,7 +13994,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -12528,7 +14005,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -12539,7 +14016,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -12549,38 +14026,46 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -12589,7 +14074,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="16">
         <f>SUBTOTAL(109,ExpFeb[Amount])</f>
-        <v>46906</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -12642,7 +14127,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12690,9 +14175,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -12708,7 +14193,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -12719,7 +14204,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -12730,7 +14215,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -12741,7 +14226,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -12758,31 +14243,31 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -12791,7 +14276,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="16">
         <f>SUBTOTAL(109,ExpMar[Amount])</f>
-        <v>46906</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -12844,7 +14329,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12859,10 +14344,10 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12892,9 +14377,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -12910,7 +14395,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -12921,7 +14406,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -12932,7 +14417,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -12943,7 +14428,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -12960,43 +14445,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>SUBTOTAL(109,ExpApr[Amount])</f>
-        <v>46906</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13046,7 +14531,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13094,9 +14579,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -13112,7 +14597,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -13123,7 +14608,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -13134,7 +14619,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -13145,7 +14630,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -13162,49 +14647,49 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>SUBTOTAL(109,ExpMay[Amount])</f>
-        <v>46906</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations disablePrompts="1" count="11">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C11">
       <formula1>ISNUMBER($C3)</formula1>
     </dataValidation>
@@ -13248,7 +14733,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13296,9 +14781,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -13314,7 +14799,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -13325,7 +14810,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -13336,7 +14821,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -13347,7 +14832,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -13364,43 +14849,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>SUBTOTAL(109,ExpJun[Amount])</f>
-        <v>46906</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13450,7 +14935,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13498,9 +14983,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -13516,7 +15001,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15247</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -13527,7 +15012,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -13538,7 +15023,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -13549,7 +15034,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -13566,43 +15051,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <f>SUBTOTAL(109,ExpJul[Amount])</f>
-        <v>46906</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Expenses/Expensetrendsbudget.xlsx
+++ b/Expenses/Expensetrendsbudget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7428" tabRatio="784" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7428" tabRatio="784" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tips" sheetId="16" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="149">
   <si>
     <t>Expenses</t>
   </si>
@@ -674,6 +674,36 @@
   <si>
     <t>meat for home</t>
   </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>Outing</t>
+  </si>
+  <si>
+    <t>Travelling Expenses</t>
+  </si>
+  <si>
+    <t>Lalbagh outing</t>
+  </si>
+  <si>
+    <t>Lalbagh Train</t>
+  </si>
+  <si>
+    <t>ICICI</t>
+  </si>
+  <si>
+    <t>CC Amount</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>Tea and snacks</t>
+  </si>
 </sst>
 </file>
 
@@ -896,9 +926,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -949,6 +976,9 @@
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1106,439 +1136,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3143,6 +2741,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3201,14 +2807,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3287,7 +2885,439 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4879,7 +4909,7 @@
                   <c:v>11319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>37619</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5383,7 +5413,7 @@
                   <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>18226</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6400,10 +6430,10 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2737</c:v>
+                  <c:v>3034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7078,10 +7108,10 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>457</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7246,7 +7276,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7799,11 +7829,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="387970704"/>
-        <c:axId val="387971096"/>
+        <c:axId val="397747120"/>
+        <c:axId val="397753784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="387970704"/>
+        <c:axId val="397747120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7845,7 +7875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387971096"/>
+        <c:crossAx val="397753784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7853,7 +7883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387971096"/>
+        <c:axId val="397753784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7903,7 +7933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387970704"/>
+        <c:crossAx val="397747120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8575,47 +8605,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O33" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A4:O32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O35" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A4:O34"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="18" dataCellStyle="Table details"/>
-    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="17" dataCellStyle="Table numbers">
+    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="84" dataCellStyle="Table details"/>
+    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="83" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="16" dataCellStyle="Table numbers">
+    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="82" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Table numbers">
+    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="81" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Table numbers">
+    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="80" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Table numbers">
+    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="79" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Table numbers">
+    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="78" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="11" dataCellStyle="Table numbers">
+    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="77" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="10" dataCellStyle="Table numbers">
+    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="76" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="9" dataCellStyle="Table numbers">
+    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="75" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Table numbers">
+    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="74" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="7" dataCellStyle="Table numbers">
+    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="73" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Table numbers">
+    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="72" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="5" dataCellStyle="Table numbers">
+    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="71" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="Trend" dataCellStyle="Normal"/>
@@ -8633,11 +8663,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="ExpSep" displayName="ExpSep" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="42" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="41" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="40" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="37" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="28" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="27" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="26" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="23" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8652,11 +8682,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ExpOct" displayName="ExpOct" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="36" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="35" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="34" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="31" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="22" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="21" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="20" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="17" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8671,11 +8701,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ExpNov" displayName="ExpNov" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="30" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="29" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="28" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="25" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="16" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="15" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="11" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8690,11 +8720,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ExpDec" displayName="ExpDec" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="24" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="23" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="22" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="19" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="10" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="9" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="5" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8706,14 +8736,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ExpJan" displayName="ExpJan" ref="A2:E98" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A2:E97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ExpJan" displayName="ExpJan" ref="A2:E100" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A2:E99"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="4" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="3" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" totalsRowDxfId="1" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="0" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="70" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="69" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="68" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" totalsRowDxfId="67" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="66" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8728,11 +8758,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExpFeb" displayName="ExpFeb" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="84" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="83" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="82" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="79" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="4" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="3" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="65" totalsRowDxfId="1" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="0" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8747,11 +8777,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ExpMar" displayName="ExpMar" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="78" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="77" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="76" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="73" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="64" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="63" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="62" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="59" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8766,11 +8796,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ExpApr" displayName="ExpApr" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="72" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="71" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="70" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="67" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="58" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="57" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="56" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="53" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8785,11 +8815,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ExpMay" displayName="ExpMay" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="66" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="65" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="64" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="61" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="52" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="51" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="50" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="47" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8804,11 +8834,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ExpJun" displayName="ExpJun" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="60" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="59" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="58" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="55" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="46" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="45" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="44" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="41" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8823,11 +8853,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ExpJul" displayName="ExpJul" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="54" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="53" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="52" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="49" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="40" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="39" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="38" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="35" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8842,11 +8872,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ExpAug" displayName="ExpAug" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="48" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="47" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="46" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="43" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="34" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="33" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="32" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="29" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -9135,13 +9165,13 @@
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="str">
+      <c r="A8" s="19" t="str">
         <f>ROW(A2)&amp;". Place your cell pointer in the last cell above the Total row, such as the total for the last expense, and then press the Tab key."</f>
         <v>2. Place your cell pointer in the last cell above the Total row, such as the total for the last expense, and then press the Tab key.</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="str">
+      <c r="A9" s="19" t="str">
         <f>ROW(A3)&amp;". Right-click in the table and on the pop up menu, point to Insert, and then click Table Rows Above or Table Rows Below."</f>
         <v>3. Right-click in the table and on the pop up menu, point to Insert, and then click Table Rows Above or Table Rows Below.</v>
       </c>
@@ -9239,19 +9269,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9266,7 +9296,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9332,43 +9362,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpAug[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9468,7 +9498,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9534,43 +9564,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpSep[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9643,19 +9673,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9670,7 +9700,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9736,43 +9766,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpOct[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9845,19 +9875,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9872,7 +9902,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9938,43 +9968,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpNov[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10047,19 +10077,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10074,7 +10104,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -10140,43 +10170,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpDec[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10223,10 +10253,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10247,43 +10277,43 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10336,7 +10366,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3">
@@ -10393,7 +10423,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="3">
@@ -10450,7 +10480,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="3">
@@ -10507,7 +10537,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="3">
@@ -10564,7 +10594,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="3">
@@ -10621,1394 +10651,1510 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>1010</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>1010</v>
       </c>
-      <c r="O10" s="30"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>11319</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
+        <v>37619</v>
+      </c>
+      <c r="D11" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>11319</v>
-      </c>
-      <c r="O11" s="25"/>
+        <v>48938</v>
+      </c>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>0</v>
       </c>
-      <c r="O12" s="25"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>0</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>25000</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="23">
+        <v>18226</v>
+      </c>
+      <c r="D14" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>25000</v>
-      </c>
-      <c r="O14" s="25"/>
+        <v>43226</v>
+      </c>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>0</v>
       </c>
-      <c r="O15" s="25"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>1000</v>
       </c>
-      <c r="O16" s="25"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>330</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>330</v>
       </c>
-      <c r="O17" s="25"/>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>0</v>
       </c>
-      <c r="O18" s="25"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>1920</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>1920</v>
       </c>
-      <c r="O19" s="25"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>2737</v>
-      </c>
-      <c r="C20" s="23">
+        <v>3034</v>
+      </c>
+      <c r="C20" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="23">
+        <v>236</v>
+      </c>
+      <c r="D20" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>2737</v>
-      </c>
-      <c r="O20" s="25"/>
+        <v>3270</v>
+      </c>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>1371.8</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>1371.8</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>1087</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>1087</v>
       </c>
-      <c r="O22" s="25"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="3">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>4503</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="22">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="22">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="22">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>4503</v>
       </c>
-      <c r="O23" s="25"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>457</v>
-      </c>
-      <c r="C24" s="29">
+        <v>511</v>
+      </c>
+      <c r="C24" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="29">
+        <v>36</v>
+      </c>
+      <c r="D24" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>457</v>
-      </c>
-      <c r="O24" s="30"/>
+        <v>547</v>
+      </c>
+      <c r="O24" s="29"/>
     </row>
     <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>40</v>
-      </c>
-      <c r="C25" s="29">
+        <v>90</v>
+      </c>
+      <c r="C25" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>40</v>
-      </c>
-      <c r="O25" s="30"/>
+        <v>90</v>
+      </c>
+      <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>0</v>
       </c>
-      <c r="O26" s="30"/>
+      <c r="O26" s="29"/>
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>300</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>300</v>
       </c>
-      <c r="O27" s="30"/>
+      <c r="O27" s="29"/>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>420</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>420</v>
       </c>
-      <c r="O28" s="30"/>
+      <c r="O28" s="29"/>
     </row>
     <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>750</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N29" s="29">
+      <c r="N29" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>750</v>
       </c>
-      <c r="O29" s="30"/>
+      <c r="O29" s="29"/>
     </row>
     <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>223</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L30" s="29">
+      <c r="L30" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N30" s="29">
+      <c r="N30" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>223</v>
       </c>
-      <c r="O30" s="30"/>
+      <c r="O30" s="29"/>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>1180</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L31" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>1180</v>
       </c>
-      <c r="O31" s="30"/>
+      <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>841</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="28">
         <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="28">
         <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="28">
         <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="28">
         <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="28">
         <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="28">
         <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="28">
         <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="28">
         <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="28">
         <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
         <v>0</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
         <v>841</v>
       </c>
-      <c r="O32" s="30"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+      <c r="O32" s="29"/>
+    </row>
+    <row r="33" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="28">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>250</v>
+      </c>
+      <c r="C33" s="28">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="28">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="28">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="28">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="28">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="28">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="28">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="28">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="28">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="28">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="28">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="28">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>250</v>
+      </c>
+      <c r="O33" s="29"/>
+    </row>
+    <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="28">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>500</v>
+      </c>
+      <c r="C34" s="28">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="28">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="28">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="28">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="28">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="28">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="28">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="28">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="28">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="28">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="28">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="28">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>500</v>
+      </c>
+      <c r="O34" s="29"/>
+    </row>
+    <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Jan])</f>
-        <v>95901.8</v>
-      </c>
-      <c r="C33" s="36">
+        <v>97052.800000000003</v>
+      </c>
+      <c r="C35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Feb])</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="36">
+        <v>56117</v>
+      </c>
+      <c r="D35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Mar])</f>
         <v>0</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Apr])</f>
         <v>0</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[May])</f>
         <v>0</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Jun])</f>
         <v>0</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Jul])</f>
         <v>0</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Aug])</f>
         <v>0</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Sep])</f>
         <v>0</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Oct])</f>
         <v>0</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Nov])</f>
         <v>0</v>
       </c>
-      <c r="M33" s="36">
+      <c r="M35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Dec])</f>
         <v>0</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N35" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Total])</f>
-        <v>95901.8</v>
+        <v>153169.79999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12187,6 +12333,14 @@
               <xm:f>summary!B32:M32</xm:f>
               <xm:sqref>O32</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>summary!B33:M33</xm:f>
+              <xm:sqref>O33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>summary!B34:M34</xm:f>
+              <xm:sqref>O34</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
@@ -12200,8 +12354,8 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>summary!B33:M33</xm:f>
-              <xm:sqref>O33</xm:sqref>
+              <xm:f>summary!B35:M35</xm:f>
+              <xm:sqref>O35</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -12217,10 +12371,10 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView showGridLines="0" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12235,27 +12389,27 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12264,16 +12418,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="3">
         <v>24507</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12282,7 +12436,7 @@
         <f ca="1">DATE(YEAR(TODAY()),1,5)</f>
         <v>43105</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="3">
@@ -12291,7 +12445,7 @@
       <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12300,7 +12454,7 @@
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="3">
@@ -12309,7 +12463,7 @@
       <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>67</v>
       </c>
     </row>
@@ -12318,7 +12472,7 @@
         <f ca="1">DATE(YEAR(TODAY()),1,16)</f>
         <v>43116</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="3">
@@ -12327,7 +12481,7 @@
       <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12336,7 +12490,7 @@
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="3">
@@ -12345,7 +12499,7 @@
       <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12354,7 +12508,7 @@
         <f ca="1">DATE(YEAR(TODAY()),1,7)</f>
         <v>43107</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="3">
@@ -12363,7 +12517,7 @@
       <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>70</v>
       </c>
     </row>
@@ -12372,16 +12526,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,2)</f>
         <v>43102</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>25000</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>71</v>
       </c>
     </row>
@@ -12390,16 +12544,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,12)</f>
         <v>43112</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>1000</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12408,16 +12562,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
         <v>43101</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>330</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -12426,16 +12580,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,5)</f>
         <v>43105</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>46</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>74</v>
       </c>
     </row>
@@ -12444,16 +12598,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,6)</f>
         <v>43106</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>150</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>75</v>
       </c>
     </row>
@@ -12462,16 +12616,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,7)</f>
         <v>43107</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>310</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>76</v>
       </c>
     </row>
@@ -12480,17 +12634,17 @@
         <f ca="1">DATE(YEAR(TODAY()),1,8)</f>
         <v>43108</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <f>92+16</f>
         <v>108</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12499,16 +12653,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,9)</f>
         <v>43109</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>190</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12517,16 +12671,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>340</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -12535,16 +12689,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>10</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>80</v>
       </c>
     </row>
@@ -12553,16 +12707,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,12)</f>
         <v>43112</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>114</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>81</v>
       </c>
     </row>
@@ -12571,16 +12725,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,12)</f>
         <v>43112</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>300</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>82</v>
       </c>
     </row>
@@ -12589,16 +12743,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,12)</f>
         <v>43112</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>220</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12607,16 +12761,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>80</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>84</v>
       </c>
     </row>
@@ -12625,16 +12779,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>170</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>85</v>
       </c>
     </row>
@@ -12643,16 +12797,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>100</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -12661,16 +12815,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>750</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>88</v>
       </c>
     </row>
@@ -12679,16 +12833,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>120</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>87</v>
       </c>
     </row>
@@ -12697,48 +12851,48 @@
         <f ca="1">DATE(YEAR(TODAY()),1,4)</f>
         <v>43104</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>52</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="26"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,4)</f>
         <v>43104</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>841</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <f ca="1">DATE(YEAR(TODAY()),1,5)</f>
         <v>43105</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <v>100</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="25" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12747,16 +12901,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,6)</f>
         <v>43106</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>15</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>90</v>
       </c>
     </row>
@@ -12765,16 +12919,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,6)</f>
         <v>43106</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>150</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12783,16 +12937,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,7)</f>
         <v>43107</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>150</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="25" t="s">
         <v>92</v>
       </c>
     </row>
@@ -12801,16 +12955,16 @@
         <f ca="1">DATE(YEAR(TODAY()),1,7)</f>
         <v>43107</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <v>1010</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="25" t="s">
         <v>93</v>
       </c>
     </row>
@@ -12819,1059 +12973,1180 @@
         <f ca="1">DATE(YEAR(TODAY()),1,8)</f>
         <v>43108</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>82</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27">
+      <c r="A35" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,9)</f>
         <v>43109</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>56</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27">
+      <c r="A36" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <v>36</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27">
+      <c r="A37" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,10)</f>
         <v>43110</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <v>280</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27">
+      <c r="A38" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="22">
         <v>36</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27">
+      <c r="A39" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="22">
         <v>40</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27">
+      <c r="A40" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,13)</f>
         <v>43113</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>728</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27">
+      <c r="A41" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>500</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27">
+      <c r="A42" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>127</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27">
+      <c r="A43" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,14)</f>
         <v>43114</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>36</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27">
+      <c r="A44" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>500</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27">
+      <c r="A45" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="28">
         <v>300</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27">
+      <c r="A46" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,15)</f>
         <v>43115</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="22">
         <v>68</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27">
+      <c r="A47" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,17)</f>
         <v>43117</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="22">
         <v>160</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27">
+      <c r="A48" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,17)</f>
         <v>43117</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="22">
         <v>34</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27">
+      <c r="A49" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
         <v>43118</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="22">
         <v>58</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27">
+      <c r="A50" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
         <v>43101</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="22">
         <v>1000</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27">
+      <c r="A51" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
         <v>43118</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="22">
         <v>371.8</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27">
+      <c r="A52" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
         <v>43118</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="23">
-        <v>0</v>
-      </c>
-      <c r="D52" s="31" t="s">
+      <c r="C52" s="22">
+        <v>0</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27">
+      <c r="A53" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
         <v>43118</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="28">
         <v>1010</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="28"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="27">
+      <c r="A54" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
         <v>43118</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="28">
         <f>104+34</f>
         <v>138</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27">
+      <c r="A55" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,18)</f>
         <v>43118</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="28">
         <v>100</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27">
+      <c r="A56" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,19)</f>
         <v>43119</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="28">
         <v>30</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="27">
+      <c r="A57" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,19)</f>
         <v>43119</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="28">
         <v>486</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="30" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27">
+      <c r="A58" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,19)</f>
         <v>43119</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="28">
         <v>18</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27">
+      <c r="A59" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,20)</f>
         <v>43120</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="28">
         <v>313</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27">
+      <c r="A60" s="26">
         <f t="shared" ref="A60" ca="1" si="0">DATE(YEAR(TODAY()),1,20)</f>
         <v>43120</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="29">
+      <c r="C60" s="28">
         <v>340</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="30" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27">
+      <c r="A61" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,21)</f>
         <v>43121</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="29">
+      <c r="C61" s="28">
         <v>57</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="27">
+      <c r="A62" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,21)</f>
         <v>43121</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="29">
+      <c r="C62" s="28">
         <v>450</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27">
+      <c r="A63" s="26">
         <f t="shared" ref="A63:A67" ca="1" si="1">DATE(YEAR(TODAY()),1,21)</f>
         <v>43121</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="28">
         <v>100</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27">
+      <c r="A64" s="26">
         <f t="shared" ca="1" si="1"/>
         <v>43121</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="28">
         <v>297</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="28"/>
+      <c r="E64" s="27"/>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27">
+      <c r="A65" s="26">
         <f t="shared" ca="1" si="1"/>
         <v>43121</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="29">
+      <c r="C65" s="28">
         <v>550</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27">
+      <c r="A66" s="26">
         <f t="shared" ca="1" si="1"/>
         <v>43121</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="28">
         <v>500</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27">
+      <c r="A67" s="26">
         <f t="shared" ca="1" si="1"/>
         <v>43121</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C67" s="28">
         <v>223</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="28"/>
+      <c r="E67" s="27"/>
     </row>
     <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27">
+      <c r="A68" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
         <v>43122</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="28">
         <v>300</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27">
+      <c r="A69" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
         <v>43122</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="28">
         <v>160</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27">
+      <c r="A70" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
         <v>43122</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C70" s="28">
         <v>15</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="31" t="s">
+      <c r="E70" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27">
+      <c r="A71" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
         <v>43122</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="29">
+      <c r="C71" s="28">
         <v>106</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="27">
+      <c r="A72" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,22)</f>
         <v>43122</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="29">
+      <c r="C72" s="28">
         <v>10</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="30" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27">
+      <c r="A73" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,23)</f>
         <v>43123</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="29">
+      <c r="C73" s="28">
         <v>67</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E73" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="27">
+      <c r="A74" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,23)</f>
         <v>43123</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="29">
+      <c r="C74" s="28">
         <v>52</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27">
+      <c r="A75" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,23)</f>
         <v>43123</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="29">
+      <c r="C75" s="28">
         <v>230</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27">
+      <c r="A76" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,24)</f>
         <v>43124</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="29">
+      <c r="C76" s="28">
         <v>150</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="27">
+      <c r="A77" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,24)</f>
         <v>43124</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="29">
+      <c r="C77" s="28">
         <v>30</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="27">
+      <c r="A78" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,25)</f>
         <v>43125</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="29">
+      <c r="C78" s="28">
         <v>57</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="27">
+      <c r="A79" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,25)</f>
         <v>43125</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="28">
         <v>15</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="27">
+      <c r="A80" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,25)</f>
         <v>43125</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="29">
+      <c r="C80" s="28">
         <v>206</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="30" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="27">
+      <c r="A81" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,26)</f>
         <v>43126</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="29">
+      <c r="C81" s="28">
         <v>200</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E81" s="30" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="27">
+      <c r="A82" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,26)</f>
         <v>43126</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="29">
+      <c r="C82" s="28">
         <v>140</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="27">
+      <c r="A83" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,27)</f>
         <v>43127</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="29">
+      <c r="C83" s="28">
         <v>165</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="27">
+      <c r="A84" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,27)</f>
         <v>43127</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="29">
+      <c r="C84" s="28">
         <v>36</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="27">
+      <c r="A85" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,27)</f>
         <v>43127</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="29">
+      <c r="C85" s="28">
         <v>300</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="27">
+      <c r="A86" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,28)</f>
         <v>43128</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="29">
+      <c r="C86" s="28">
         <v>150</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E86" s="31" t="s">
+      <c r="E86" s="30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="27">
+      <c r="A87" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,28)</f>
         <v>43128</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="29">
+      <c r="C87" s="28">
         <v>90</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E87" s="28"/>
+      <c r="E87" s="27"/>
     </row>
     <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="27">
+      <c r="A88" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,28)</f>
         <v>43128</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="29">
+      <c r="C88" s="28">
         <v>10</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E88" s="31" t="s">
+      <c r="E88" s="30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="27">
+      <c r="A89" s="26">
         <f ca="1">DATE(YEAR(TODAY()),1,28)</f>
         <v>43128</v>
       </c>
-      <c r="B89" s="28"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
+      <c r="B89" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="28">
+        <v>250</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
+      <c r="A90" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),1,28)</f>
+        <v>43128</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="28">
+        <v>500</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
+      <c r="A91" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),1,29)</f>
+        <v>43129</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="28">
+        <v>24</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
+      <c r="A92" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),1,29)</f>
+        <v>43129</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="28">
+        <v>100</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="21"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
+      <c r="A93" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),1,29)</f>
+        <v>43129</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="28">
+        <v>18</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
+      <c r="A94" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),1,30)</f>
+        <v>43130</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="28">
+        <v>36</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="21"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
+      <c r="A95" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),1,30)</f>
+        <v>43130</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="28">
+        <v>50</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
+      <c r="A96" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),1,30)</f>
+        <v>43130</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="28">
+        <v>38</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="21"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
+      <c r="A97" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),1,31)</f>
+        <v>43131</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="28">
+        <v>25</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),1,31)</f>
+        <v>43131</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="28">
+        <v>110</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="20"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+    </row>
+    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="33">
+      <c r="B100" s="31"/>
+      <c r="C100" s="32">
         <f>SUBTOTAL(109,ExpJan[Amount])</f>
-        <v>95901.8</v>
-      </c>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
+        <v>97052.800000000003</v>
+      </c>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13886,13 +14161,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the Amount of the expense in this column" sqref="C2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A list of expense categories automatically populated from the Expenses column in the Expense Summary table in the summary worksheet. ALT+DOWN ARROW to navigate the list. ENTER to select a Category" sqref="D2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a description of the expense in this column" sqref="E2"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D97">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D99">
       <formula1>ExpenseCategories</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C97">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C99">
       <formula1>ISNUMBER($C3)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in January needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A97">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in January needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A99">
       <formula1>MONTH($A3)=1</formula1>
     </dataValidation>
   </dataValidations>
@@ -13920,8 +14195,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13936,10 +14211,10 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13962,122 +14237,154 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <f ca="1">DATE(YEAR(TODAY()),2,3)</f>
-        <v>43134</v>
-      </c>
-      <c r="B3" s="2"/>
+        <f ca="1">DATE(YEAR(TODAY()),2,1)</f>
+        <v>43132</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>144</v>
+      </c>
       <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>37619</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f ca="1">DATE(YEAR(TODAY()),2,4)</f>
-        <v>43135</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,1)</f>
+        <v>43132</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>144</v>
+      </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>18226</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,1)</f>
+        <v>43132</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,1)</f>
+        <v>43132</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,2)</f>
+        <v>43133</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3">
         <v>50</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,2)</f>
+        <v>43133</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="22"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpFeb[Amount])</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>56117</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14177,7 +14484,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -14243,31 +14550,31 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -14344,10 +14651,10 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14379,7 +14686,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -14445,43 +14752,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpApr[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14581,7 +14888,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -14647,43 +14954,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpMay[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14783,7 +15090,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -14849,43 +15156,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpJun[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14958,19 +15265,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14985,7 +15292,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -15051,43 +15358,43 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <f>SUBTOTAL(109,ExpJul[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Expenses/Expensetrendsbudget.xlsx
+++ b/Expenses/Expensetrendsbudget.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="169">
   <si>
     <t>Expenses</t>
   </si>
@@ -703,6 +703,66 @@
   </si>
   <si>
     <t>Tea and snacks</t>
+  </si>
+  <si>
+    <t>Oil items</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>dhal items</t>
+  </si>
+  <si>
+    <t>chicken meat</t>
+  </si>
+  <si>
+    <t>Eggs 12 nos</t>
+  </si>
+  <si>
+    <t>Pokada</t>
+  </si>
+  <si>
+    <t>Rice, shikai</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Shoe for wife</t>
+  </si>
+  <si>
+    <t>Fuel for going to chennai</t>
+  </si>
+  <si>
+    <t>year subscription</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>in ambur</t>
+  </si>
+  <si>
+    <t>In Chittor</t>
+  </si>
+  <si>
+    <t>In Chittor - Juice</t>
+  </si>
+  <si>
+    <t>In Cinema theatre -snakcs</t>
+  </si>
+  <si>
+    <t>Adtya Hyper Market - kanchi</t>
+  </si>
+  <si>
+    <t>In Kanchi</t>
+  </si>
+  <si>
+    <t>Return from Chennai</t>
+  </si>
+  <si>
+    <t>For kanchi</t>
   </si>
 </sst>
 </file>
@@ -1137,6 +1197,439 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2900,439 +3393,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -5920,7 +5980,7 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3741</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6262,7 +6322,7 @@
                   <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6943,7 +7003,7 @@
                   <c:v>4503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1926</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7829,11 +7889,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="397747120"/>
-        <c:axId val="397753784"/>
+        <c:axId val="474811840"/>
+        <c:axId val="474807920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="397747120"/>
+        <c:axId val="474811840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7875,7 +7935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397753784"/>
+        <c:crossAx val="474807920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7883,7 +7943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397753784"/>
+        <c:axId val="474807920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7933,7 +7993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397747120"/>
+        <c:crossAx val="474811840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8605,47 +8665,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O35" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A4:O34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O36" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A4:O35"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="84" dataCellStyle="Table details"/>
-    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="83" dataCellStyle="Table numbers">
+    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="18" dataCellStyle="Table details"/>
+    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="17" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="82" dataCellStyle="Table numbers">
+    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="16" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="81" dataCellStyle="Table numbers">
+    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="80" dataCellStyle="Table numbers">
+    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="79" dataCellStyle="Table numbers">
+    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="78" dataCellStyle="Table numbers">
+    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="77" dataCellStyle="Table numbers">
+    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="11" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="76" dataCellStyle="Table numbers">
+    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="10" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="75" dataCellStyle="Table numbers">
+    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="9" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="74" dataCellStyle="Table numbers">
+    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="73" dataCellStyle="Table numbers">
+    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="7" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="72" dataCellStyle="Table numbers">
+    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="71" dataCellStyle="Table numbers">
+    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="5" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="Trend" dataCellStyle="Normal"/>
@@ -8663,11 +8723,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="ExpSep" displayName="ExpSep" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="28" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="27" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="26" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="23" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="42" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="41" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="40" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="37" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8682,11 +8742,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ExpOct" displayName="ExpOct" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="22" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="21" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="20" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="17" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="36" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="35" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="34" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="31" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8701,11 +8761,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ExpNov" displayName="ExpNov" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="16" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="15" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="11" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="30" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="29" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="28" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="25" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8720,11 +8780,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ExpDec" displayName="ExpDec" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="10" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="9" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="5" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="24" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="23" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="22" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="19" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8739,11 +8799,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ExpJan" displayName="ExpJan" ref="A2:E100" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E99"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="70" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="69" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="68" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" totalsRowDxfId="67" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="66" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="84" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="83" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="82" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" totalsRowDxfId="81" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="80" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8755,13 +8815,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExpFeb" displayName="ExpFeb" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A2:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExpFeb" displayName="ExpFeb" ref="A2:E35" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A2:E34"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="4" dataCellStyle="Table date"/>
     <tableColumn id="2" name="PO#" totalsRowDxfId="3" dataCellStyle="Table details"/>
     <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="65" totalsRowDxfId="1" dataCellStyle="Table details"/>
+    <tableColumn id="4" name="Category" dataDxfId="79" totalsRowDxfId="1" dataCellStyle="Table details"/>
     <tableColumn id="5" name="Description" totalsRowDxfId="0" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
@@ -8777,11 +8837,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ExpMar" displayName="ExpMar" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="64" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="63" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="62" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="59" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="78" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="77" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="76" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="73" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8796,11 +8856,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ExpApr" displayName="ExpApr" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="58" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="57" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="56" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="53" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="72" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="71" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="70" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="67" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8815,11 +8875,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ExpMay" displayName="ExpMay" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="52" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="51" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="50" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="47" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="66" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="65" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="64" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="61" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8834,11 +8894,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ExpJun" displayName="ExpJun" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="46" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="45" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="44" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="41" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="60" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="59" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="58" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="55" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8853,11 +8913,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ExpJul" displayName="ExpJul" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="40" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="39" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="38" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="35" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="54" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="53" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="52" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="49" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8872,11 +8932,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ExpAug" displayName="ExpAug" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="34" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="33" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="32" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="29" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="48" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="47" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="46" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="43" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -10253,10 +10313,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11066,7 +11126,7 @@
       </c>
       <c r="C17" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>3741</v>
       </c>
       <c r="D17" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11110,7 +11170,7 @@
       </c>
       <c r="N17" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>330</v>
+        <v>4071</v>
       </c>
       <c r="O17" s="24"/>
     </row>
@@ -11182,7 +11242,7 @@
       </c>
       <c r="C19" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="D19" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11226,7 +11286,7 @@
       </c>
       <c r="N19" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>1920</v>
+        <v>4820</v>
       </c>
       <c r="O19" s="24"/>
     </row>
@@ -11414,7 +11474,7 @@
       </c>
       <c r="C23" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>1926</v>
       </c>
       <c r="D23" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11458,7 +11518,7 @@
       </c>
       <c r="N23" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>4503</v>
+        <v>6429</v>
       </c>
       <c r="O23" s="24"/>
     </row>
@@ -11762,7 +11822,7 @@
       </c>
       <c r="C29" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D29" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11806,7 +11866,7 @@
       </c>
       <c r="N29" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>750</v>
+        <v>918</v>
       </c>
       <c r="O29" s="29"/>
     </row>
@@ -11878,7 +11938,7 @@
       </c>
       <c r="C31" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="D31" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11922,7 +11982,7 @@
       </c>
       <c r="N31" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>1180</v>
+        <v>5180</v>
       </c>
       <c r="O31" s="29"/>
     </row>
@@ -11936,7 +11996,7 @@
       </c>
       <c r="C32" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="D32" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11980,7 +12040,7 @@
       </c>
       <c r="N32" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>841</v>
+        <v>1701</v>
       </c>
       <c r="O32" s="29"/>
     </row>
@@ -12101,60 +12161,118 @@
       <c r="O34" s="29"/>
     </row>
     <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="28">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="28">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>500</v>
+      </c>
+      <c r="D35" s="28">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="28">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="28">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="28">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="28">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="28">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="28">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="28">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="28">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="28">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="28">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>500</v>
+      </c>
+      <c r="O35" s="29"/>
+    </row>
+    <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Jan])</f>
         <v>97052.800000000003</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Feb])</f>
-        <v>56117</v>
-      </c>
-      <c r="D35" s="35">
+        <v>70212</v>
+      </c>
+      <c r="D36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Mar])</f>
         <v>0</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Apr])</f>
         <v>0</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[May])</f>
         <v>0</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Jun])</f>
         <v>0</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Jul])</f>
         <v>0</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Aug])</f>
         <v>0</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Sep])</f>
         <v>0</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Oct])</f>
         <v>0</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Nov])</f>
         <v>0</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Dec])</f>
         <v>0</v>
       </c>
-      <c r="N35" s="35">
+      <c r="N36" s="35">
         <f>SUBTOTAL(109,ExpenseSummary[Total])</f>
-        <v>153169.79999999999</v>
+        <v>167264.79999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12211,6 +12329,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>summary!B36:M36</xm:f>
+              <xm:sqref>O36</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" last="1" negative="1">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="6" tint="-0.499984740745262"/>
@@ -12341,18 +12475,6 @@
               <xm:f>summary!B34:M34</xm:f>
               <xm:sqref>O34</xm:sqref>
             </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="7"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
             <x14:sparkline>
               <xm:f>summary!B35:M35</xm:f>
               <xm:sqref>O35</xm:sqref>
@@ -14193,10 +14315,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14342,58 +14464,391 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,2)</f>
+        <v>43133</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3741</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,3)</f>
+        <v>43134</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="28">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,3)</f>
+        <v>43134</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="28">
+        <v>150</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,3)</f>
+        <v>43134</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="28">
+        <v>100</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,4)</f>
+        <v>43135</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="28">
+        <v>250</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,5)</f>
+        <v>43136</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="28">
+        <v>567</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,5)</f>
+        <v>43136</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="28">
+        <v>100</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,6)</f>
+        <v>43137</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="28">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,6)</f>
+        <v>43137</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="28">
+        <v>2900</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,7)</f>
+        <v>43138</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="28">
+        <v>200</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,7)</f>
+        <v>43138</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="22">
+        <v>529</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
+        <v>43141</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="28">
+        <v>668</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
+        <v>43141</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="22">
+        <v>120</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
+        <v>43141</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="28">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
+        <v>43141</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="28">
         <v>60</v>
       </c>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="D23" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
+        <v>43141</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="28">
+        <v>162</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
+        <v>43141</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="28">
+        <v>500</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32">
+      <c r="B35" s="31"/>
+      <c r="C35" s="32">
         <f>SUBTOTAL(109,ExpFeb[Amount])</f>
-        <v>56117</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+        <v>70212</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D11">
-      <formula1>ExpenseCategories</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Detailed expenses are outlined in the table in this worksheet. Navigation hyperlinks to the summary worksheet and the tips worksheet respectively are in cells D1 and E1" sqref="A1:C1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation hyperlink to the summary worksheet" sqref="D1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation hyperlink to the tips worksheet" sqref="E1"/>
@@ -14402,10 +14857,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the Amount of the expense in this column" sqref="C2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A list of expense categories automatically populated from the Expenses column in the Expense Summary table in the summary worksheet. ALT+DOWN ARROW to navigate the list. ENTER to select a Category" sqref="D2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a description of the expense in this column" sqref="E2"/>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C11">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D34">
+      <formula1>ExpenseCategories</formula1>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C34">
       <formula1>ISNUMBER($C3)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in February needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A11">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in February needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A34">
       <formula1>MONTH($A3)=2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Expenses/Expensetrendsbudget.xlsx
+++ b/Expenses/Expensetrendsbudget.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="177">
   <si>
     <t>Expenses</t>
   </si>
@@ -764,6 +764,30 @@
   <si>
     <t>For kanchi</t>
   </si>
+  <si>
+    <t>myself</t>
+  </si>
+  <si>
+    <t>Snacks for family</t>
+  </si>
+  <si>
+    <t>Cyclinder</t>
+  </si>
+  <si>
+    <t>Fruits and snaks</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>2 milk</t>
+  </si>
+  <si>
+    <t>Kotak through paytm</t>
+  </si>
+  <si>
+    <t>Repair(Car/Bike)</t>
+  </si>
 </sst>
 </file>
 
@@ -772,7 +796,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,13 +875,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1031,17 +1048,17 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" customBuiltin="1"/>
@@ -3951,7 +3968,7 @@
                   <c:v>24507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>29892</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4121,7 +4138,7 @@
                   <c:v>15247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15216</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4291,7 +4308,7 @@
                   <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4631,7 +4648,7 @@
                   <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4801,7 +4818,7 @@
                   <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5305,7 +5322,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1065</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6322,7 +6339,7 @@
                   <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2900</c:v>
+                  <c:v>3231</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7171,7 +7188,7 @@
                   <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7843,7 +7860,7 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7889,11 +7906,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="474811840"/>
-        <c:axId val="474807920"/>
+        <c:axId val="544631696"/>
+        <c:axId val="544621504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474811840"/>
+        <c:axId val="544631696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7935,7 +7952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474807920"/>
+        <c:crossAx val="544621504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7943,7 +7960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474807920"/>
+        <c:axId val="544621504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7993,7 +8010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474811840"/>
+        <c:crossAx val="544631696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8665,8 +8682,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O36" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A4:O35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O37" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A4:O36"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="18" dataCellStyle="Table details"/>
     <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="17" dataCellStyle="Table numbers">
@@ -8815,8 +8832,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExpFeb" displayName="ExpFeb" ref="A2:E35" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A2:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExpFeb" displayName="ExpFeb" ref="A2:E43" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A2:E42"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="4" dataCellStyle="Table date"/>
     <tableColumn id="2" name="PO#" totalsRowDxfId="3" dataCellStyle="Table details"/>
@@ -9316,11 +9333,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -9518,11 +9535,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -9720,11 +9737,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -9922,11 +9939,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -10124,11 +10141,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -10313,10 +10330,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10435,7 +10452,7 @@
       </c>
       <c r="C5" s="3">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>29892</v>
       </c>
       <c r="D5" s="3">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -10479,7 +10496,7 @@
       </c>
       <c r="N5" s="3">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>24507</v>
+        <v>54399</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10492,7 +10509,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>15216</v>
       </c>
       <c r="D6" s="3">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -10536,7 +10553,7 @@
       </c>
       <c r="N6" s="3">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>15247</v>
+        <v>30463</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10549,7 +10566,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="D7" s="3">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -10593,7 +10610,7 @@
       </c>
       <c r="N7" s="3">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>671</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10663,7 +10680,7 @@
       </c>
       <c r="C9" s="3">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="D9" s="3">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -10707,7 +10724,7 @@
       </c>
       <c r="N9" s="3">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>589</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10720,7 +10737,7 @@
       </c>
       <c r="C10" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="D10" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -10764,7 +10781,7 @@
       </c>
       <c r="N10" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>1010</v>
+        <v>1367</v>
       </c>
       <c r="O10" s="29"/>
     </row>
@@ -10894,7 +10911,7 @@
       </c>
       <c r="C13" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="D13" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -10938,7 +10955,7 @@
       </c>
       <c r="N13" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="O13" s="24"/>
     </row>
@@ -11242,7 +11259,7 @@
       </c>
       <c r="C19" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>2900</v>
+        <v>3231</v>
       </c>
       <c r="D19" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11286,7 +11303,7 @@
       </c>
       <c r="N19" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>4820</v>
+        <v>5151</v>
       </c>
       <c r="O19" s="24"/>
     </row>
@@ -11532,7 +11549,7 @@
       </c>
       <c r="C24" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D24" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11576,7 +11593,7 @@
       </c>
       <c r="N24" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>547</v>
+        <v>661</v>
       </c>
       <c r="O24" s="29"/>
     </row>
@@ -11764,7 +11781,7 @@
       </c>
       <c r="C28" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="D28" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11808,7 +11825,7 @@
       </c>
       <c r="N28" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>420</v>
+        <v>730</v>
       </c>
       <c r="O28" s="29"/>
     </row>
@@ -11996,7 +12013,7 @@
       </c>
       <c r="C32" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>860</v>
+        <v>1645</v>
       </c>
       <c r="D32" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -12040,7 +12057,7 @@
       </c>
       <c r="N32" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>1701</v>
+        <v>2486</v>
       </c>
       <c r="O32" s="29"/>
     </row>
@@ -12219,60 +12236,118 @@
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="28">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="28">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>8700</v>
+      </c>
+      <c r="D36" s="28">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="28">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="28">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="28">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="28">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="28">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="28">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="28">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="28">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="28">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="28">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>8700</v>
+      </c>
+      <c r="O36" s="29"/>
+    </row>
+    <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Jan])</f>
         <v>97052.800000000003</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Feb])</f>
-        <v>70212</v>
-      </c>
-      <c r="D36" s="35">
+        <v>128183</v>
+      </c>
+      <c r="D37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Mar])</f>
         <v>0</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Apr])</f>
         <v>0</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[May])</f>
         <v>0</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Jun])</f>
         <v>0</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Jul])</f>
         <v>0</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Aug])</f>
         <v>0</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Sep])</f>
         <v>0</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Oct])</f>
         <v>0</v>
       </c>
-      <c r="L36" s="35">
+      <c r="L37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Nov])</f>
         <v>0</v>
       </c>
-      <c r="M36" s="35">
+      <c r="M37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Dec])</f>
         <v>0</v>
       </c>
-      <c r="N36" s="35">
+      <c r="N37" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Total])</f>
-        <v>167264.79999999999</v>
+        <v>225235.8</v>
       </c>
     </row>
   </sheetData>
@@ -12340,8 +12415,8 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>summary!B36:M36</xm:f>
-              <xm:sqref>O36</xm:sqref>
+              <xm:f>summary!B37:M37</xm:f>
+              <xm:sqref>O37</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -12479,6 +12554,10 @@
               <xm:f>summary!B35:M35</xm:f>
               <xm:sqref>O35</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>summary!B36:M36</xm:f>
+              <xm:sqref>O36</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
@@ -12506,11 +12585,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
@@ -14315,10 +14394,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14328,11 +14407,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
@@ -14577,272 +14656,500 @@
         <v>43136</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C15" s="28">
-        <v>100</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>166</v>
-      </c>
+        <v>15216</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,5)</f>
+        <v>43136</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="28">
+        <v>100</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,5)</f>
+        <v>43136</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="28">
+        <v>357</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
         <f ca="1">DATE(YEAR(TODAY()),2,6)</f>
         <v>43137</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B18" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C18" s="28">
         <v>2000</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D18" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E18" s="30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
         <f ca="1">DATE(YEAR(TODAY()),2,6)</f>
         <v>43137</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C19" s="28">
         <v>2900</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D19" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,6)</f>
+        <v>43137</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="28">
+        <v>8700</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
         <f ca="1">DATE(YEAR(TODAY()),2,7)</f>
         <v>43138</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B21" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C21" s="28">
         <v>200</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
         <f ca="1">DATE(YEAR(TODAY()),2,7)</f>
         <v>43138</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B22" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C22" s="22">
         <v>529</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E22" s="30" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
-        <v>43141</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="28">
-        <v>668</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
-        <v>43141</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="22">
-        <v>120</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
-        <v>43141</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="28">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
+        <f t="shared" ref="A23:A29" ca="1" si="0">DATE(YEAR(TODAY()),2,10)</f>
         <v>43141</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C23" s="28">
-        <v>60</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>135</v>
+        <v>668</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43141</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="28">
-        <v>162</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>61</v>
+      <c r="C24" s="22">
+        <v>120</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43141</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="28">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>43141</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="28">
+        <v>60</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>43141</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="28">
+        <v>162</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>43141</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="28">
         <v>500</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E28" s="30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-    </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27"/>
+      <c r="A29" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>43141</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="28">
+        <v>29892</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="A30" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,16)</f>
+        <v>43147</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="28">
+        <v>20</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="A31" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,16)</f>
+        <v>43147</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="28">
+        <f>200+60+30+20</f>
+        <v>310</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27"/>
+      <c r="A32" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,16)</f>
+        <v>43147</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="28">
+        <v>1065</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="A33" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,16)</f>
+        <v>43147</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="28">
+        <v>50</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="A34" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,17)</f>
+        <v>43148</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="28">
+        <v>36</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,17)</f>
+        <v>43148</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="28">
+        <v>160</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,17)</f>
+        <v>43148</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="28">
+        <v>331</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,18)</f>
+        <v>43149</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="28">
+        <v>395</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,18)</f>
+        <v>43149</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="28">
+        <v>180</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,18)</f>
+        <v>43149</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="28">
+        <v>22</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,19)</f>
+        <v>43150</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="28">
+        <v>36</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,19)</f>
+        <v>43150</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="28">
+        <v>589</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,19)</f>
+        <v>43150</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="28">
+        <v>612</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32">
+      <c r="B43" s="7"/>
+      <c r="C43" s="16">
         <f>SUBTOTAL(109,ExpFeb[Amount])</f>
-        <v>70212</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+        <v>128183</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14857,13 +15164,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the Amount of the expense in this column" sqref="C2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A list of expense categories automatically populated from the Expenses column in the Expense Summary table in the summary worksheet. ALT+DOWN ARROW to navigate the list. ENTER to select a Category" sqref="D2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a description of the expense in this column" sqref="E2"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D34">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D42">
       <formula1>ExpenseCategories</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C34">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C42">
       <formula1>ISNUMBER($C3)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in February needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A34">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in February needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A42">
       <formula1>MONTH($A3)=2</formula1>
     </dataValidation>
   </dataValidations>
@@ -14902,11 +15209,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -15104,11 +15411,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
@@ -15306,11 +15613,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -15508,11 +15815,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -15710,11 +16017,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>

--- a/Expenses/Expensetrendsbudget.xlsx
+++ b/Expenses/Expensetrendsbudget.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="186">
   <si>
     <t>Expenses</t>
   </si>
@@ -788,6 +788,33 @@
   <si>
     <t>Repair(Car/Bike)</t>
   </si>
+  <si>
+    <t>HDFC through paytm</t>
+  </si>
+  <si>
+    <t>Bike fuel</t>
+  </si>
+  <si>
+    <t>My self</t>
+  </si>
+  <si>
+    <t>Office Birthday Celebration amount</t>
+  </si>
+  <si>
+    <t>Papaiya and small poori</t>
+  </si>
+  <si>
+    <t>Masala poori</t>
+  </si>
+  <si>
+    <t>Vegby - office tea</t>
+  </si>
+  <si>
+    <t>Gift to other</t>
+  </si>
+  <si>
+    <t>Send off Gift</t>
+  </si>
 </sst>
 </file>
 
@@ -796,7 +823,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,6 +902,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1050,13 +1084,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
@@ -6339,7 +6373,7 @@
                   <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3231</c:v>
+                  <c:v>3486</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6510,7 +6544,7 @@
                   <c:v>3034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>236</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7188,7 +7222,7 @@
                   <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7906,11 +7940,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="544631696"/>
-        <c:axId val="544621504"/>
+        <c:axId val="551601592"/>
+        <c:axId val="551598064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="544631696"/>
+        <c:axId val="551601592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7952,7 +7986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544621504"/>
+        <c:crossAx val="551598064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7960,7 +7994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544621504"/>
+        <c:axId val="551598064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8010,7 +8044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544631696"/>
+        <c:crossAx val="551601592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8682,8 +8716,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O37" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A4:O36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O38" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A4:O37"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="18" dataCellStyle="Table details"/>
     <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="17" dataCellStyle="Table numbers">
@@ -8832,8 +8866,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExpFeb" displayName="ExpFeb" ref="A2:E43" totalsRowCount="1" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A2:E42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ExpFeb" displayName="ExpFeb" ref="A2:E84" totalsRowCount="1" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A2:E83"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="4" dataCellStyle="Table date"/>
     <tableColumn id="2" name="PO#" totalsRowDxfId="3" dataCellStyle="Table details"/>
@@ -10330,10 +10364,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11259,7 +11293,7 @@
       </c>
       <c r="C19" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>3231</v>
+        <v>3486</v>
       </c>
       <c r="D19" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11303,7 +11337,7 @@
       </c>
       <c r="N19" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>5151</v>
+        <v>5406</v>
       </c>
       <c r="O19" s="24"/>
     </row>
@@ -11317,7 +11351,7 @@
       </c>
       <c r="C20" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="D20" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11361,7 +11395,7 @@
       </c>
       <c r="N20" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>3270</v>
+        <v>3310</v>
       </c>
       <c r="O20" s="24"/>
     </row>
@@ -11549,7 +11583,7 @@
       </c>
       <c r="C24" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="D24" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11593,7 +11627,7 @@
       </c>
       <c r="N24" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>661</v>
+        <v>715</v>
       </c>
       <c r="O24" s="29"/>
     </row>
@@ -11955,7 +11989,7 @@
       </c>
       <c r="C31" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="D31" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11999,7 +12033,7 @@
       </c>
       <c r="N31" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>5180</v>
+        <v>5780</v>
       </c>
       <c r="O31" s="29"/>
     </row>
@@ -12013,7 +12047,7 @@
       </c>
       <c r="C32" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>1645</v>
+        <v>1855</v>
       </c>
       <c r="D32" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -12057,7 +12091,7 @@
       </c>
       <c r="N32" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>2486</v>
+        <v>2696</v>
       </c>
       <c r="O32" s="29"/>
     </row>
@@ -12294,60 +12328,118 @@
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="28">
+        <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="28">
+        <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>200</v>
+      </c>
+      <c r="D37" s="28">
+        <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="28">
+        <f>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="28">
+        <f>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="28">
+        <f>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="28">
+        <f>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="28">
+        <f>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="28">
+        <f>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="28">
+        <f>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="28">
+        <f>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="28">
+        <f>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="28">
+        <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
+        <v>200</v>
+      </c>
+      <c r="O37" s="29"/>
+    </row>
+    <row r="38" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Jan])</f>
         <v>97052.800000000003</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Feb])</f>
-        <v>128183</v>
-      </c>
-      <c r="D37" s="38">
+        <v>129542</v>
+      </c>
+      <c r="D38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Mar])</f>
         <v>0</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Apr])</f>
         <v>0</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[May])</f>
         <v>0</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Jun])</f>
         <v>0</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Jul])</f>
         <v>0</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Aug])</f>
         <v>0</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Sep])</f>
         <v>0</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Oct])</f>
         <v>0</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Nov])</f>
         <v>0</v>
       </c>
-      <c r="M37" s="38">
+      <c r="M38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Dec])</f>
         <v>0</v>
       </c>
-      <c r="N37" s="38">
+      <c r="N38" s="38">
         <f>SUBTOTAL(109,ExpenseSummary[Total])</f>
-        <v>225235.8</v>
+        <v>226594.8</v>
       </c>
     </row>
   </sheetData>
@@ -12404,22 +12496,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="7"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>summary!B37:M37</xm:f>
-              <xm:sqref>O37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" last="1" negative="1">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="6" tint="-0.499984740745262"/>
@@ -12558,6 +12634,26 @@
               <xm:f>summary!B36:M36</xm:f>
               <xm:sqref>O36</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>summary!B37:M37</xm:f>
+              <xm:sqref>O37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>summary!B38:M38</xm:f>
+              <xm:sqref>O38</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
@@ -14394,10 +14490,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14914,20 +15010,20 @@
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,16)</f>
-        <v>43147</v>
+        <f ca="1">DATE(YEAR(TODAY()),2,15)</f>
+        <v>43146</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C30" s="28">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14936,17 +15032,16 @@
         <v>43147</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="28">
-        <f>200+60+30+20</f>
-        <v>310</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>115</v>
+        <v>34</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14955,15 +15050,17 @@
         <v>43147</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C32" s="28">
-        <v>1065</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
@@ -14974,10 +15071,11 @@
         <v>109</v>
       </c>
       <c r="C33" s="28">
-        <v>50</v>
+        <f>200+60+30+20</f>
+        <v>310</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>169</v>
@@ -14985,38 +15083,36 @@
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,17)</f>
-        <v>43148</v>
+        <f ca="1">DATE(YEAR(TODAY()),2,16)</f>
+        <v>43147</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C34" s="28">
-        <v>36</v>
+        <v>1065</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>95</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,17)</f>
-        <v>43148</v>
+        <f ca="1">DATE(YEAR(TODAY()),2,16)</f>
+        <v>43147</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="28">
-        <v>160</v>
-      </c>
-      <c r="D35" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="27" t="s">
         <v>135</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15025,52 +15121,52 @@
         <v>43148</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C36" s="28">
-        <v>331</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,18)</f>
-        <v>43149</v>
+        <f ca="1">DATE(YEAR(TODAY()),2,17)</f>
+        <v>43148</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C37" s="28">
-        <v>395</v>
+        <v>160</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>135</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,18)</f>
-        <v>43149</v>
+        <f ca="1">DATE(YEAR(TODAY()),2,17)</f>
+        <v>43148</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C38" s="28">
-        <v>180</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>135</v>
+        <v>331</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15079,47 +15175,49 @@
         <v>43149</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C39" s="28">
-        <v>22</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="27"/>
+        <v>395</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,19)</f>
-        <v>43150</v>
+        <f ca="1">DATE(YEAR(TODAY()),2,18)</f>
+        <v>43149</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C40" s="28">
-        <v>36</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>94</v>
+        <v>180</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
-        <f ca="1">DATE(YEAR(TODAY()),2,19)</f>
-        <v>43150</v>
+        <f ca="1">DATE(YEAR(TODAY()),2,18)</f>
+        <v>43149</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C41" s="28">
-        <v>589</v>
+        <v>22</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E41" s="27"/>
     </row>
@@ -15129,27 +15227,455 @@
         <v>43150</v>
       </c>
       <c r="B42" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="28">
+        <v>36</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,19)</f>
+        <v>43150</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="28">
+        <v>589</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="27"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,19)</f>
+        <v>43150</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C44" s="28">
         <v>612</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D44" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,20)</f>
+        <v>43151</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="28">
+        <v>16</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,21)</f>
+        <v>43152</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="28">
+        <v>200</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,21)</f>
+        <v>43152</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="28">
+        <v>18</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,21)</f>
+        <v>43152</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="28">
+        <v>80</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,22)</f>
+        <v>43153</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="28">
+        <v>55</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,22)</f>
+        <v>43153</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="28">
+        <v>18</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,22)</f>
+        <v>43153</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="28">
+        <v>80</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,22)</f>
+        <v>43153</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="28">
+        <v>200</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,23)</f>
+        <v>43154</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="28">
+        <v>300</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,23)</f>
+        <v>43154</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="28">
+        <v>18</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,23)</f>
+        <v>43154</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="28">
+        <v>40</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="20"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+    </row>
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+    </row>
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+    </row>
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+    </row>
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+    </row>
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+    </row>
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="20"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+    </row>
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+    </row>
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="20"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+    </row>
+    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+    </row>
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+    </row>
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="20"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+    </row>
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+    </row>
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="20"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+    </row>
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="16">
+      <c r="B84" s="31"/>
+      <c r="C84" s="32">
         <f>SUBTOTAL(109,ExpFeb[Amount])</f>
-        <v>128183</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+        <v>129542</v>
+      </c>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15164,13 +15690,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the Amount of the expense in this column" sqref="C2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A list of expense categories automatically populated from the Expenses column in the Expense Summary table in the summary worksheet. ALT+DOWN ARROW to navigate the list. ENTER to select a Category" sqref="D2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a description of the expense in this column" sqref="E2"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D42">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="An expense from the drop down should be selected in order for it to be included on the Summary sheet" sqref="D3:D83">
       <formula1>ExpenseCategories</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C42">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount Validation" error="Amount should be a number." sqref="C3:C83">
       <formula1>ISNUMBER($C3)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in February needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A42">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="A date in February needs be entered in order for this expense to be added to the Summary sheet" sqref="A3:A83">
       <formula1>MONTH($A3)=2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Expenses/Expensetrendsbudget.xlsx
+++ b/Expenses/Expensetrendsbudget.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="186">
   <si>
     <t>Expenses</t>
   </si>
@@ -801,9 +801,6 @@
     <t>Office Birthday Celebration amount</t>
   </si>
   <si>
-    <t>Papaiya and small poori</t>
-  </si>
-  <si>
     <t>Masala poori</t>
   </si>
   <si>
@@ -814,6 +811,9 @@
   </si>
   <si>
     <t>Send off Gift</t>
+  </si>
+  <si>
+    <t>fruits and small poori</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1082,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1093,6 +1091,8 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" customBuiltin="1"/>
@@ -1248,439 +1248,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="major"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3444,6 +3011,439 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -6373,7 +6373,7 @@
                   <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3486</c:v>
+                  <c:v>3831</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6544,7 +6544,7 @@
                   <c:v>3034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>276</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6886,7 +6886,7 @@
                   <c:v>1087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7054,7 +7054,7 @@
                   <c:v>4503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1926</c:v>
+                  <c:v>3571</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7222,7 +7222,7 @@
                   <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7940,11 +7940,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="551601592"/>
-        <c:axId val="551598064"/>
+        <c:axId val="417075208"/>
+        <c:axId val="417068152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="551601592"/>
+        <c:axId val="417075208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7986,7 +7986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551598064"/>
+        <c:crossAx val="417068152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7994,7 +7994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="551598064"/>
+        <c:axId val="417068152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8044,7 +8044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551601592"/>
+        <c:crossAx val="417075208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8719,44 +8719,44 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ExpenseSummary" displayName="ExpenseSummary" ref="A4:O38" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A4:O37"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="18" dataCellStyle="Table details"/>
-    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="17" dataCellStyle="Table numbers">
+    <tableColumn id="1" name="Expenses" totalsRowLabel="Total" totalsRowDxfId="84" dataCellStyle="Table details"/>
+    <tableColumn id="2" name="Jan" totalsRowFunction="sum" totalsRowDxfId="83" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="16" dataCellStyle="Table numbers">
+    <tableColumn id="3" name="Feb" totalsRowFunction="sum" totalsRowDxfId="82" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Table numbers">
+    <tableColumn id="4" name="Mar" totalsRowFunction="sum" totalsRowDxfId="81" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Table numbers">
+    <tableColumn id="5" name="Apr" totalsRowFunction="sum" totalsRowDxfId="80" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpApr[Amount],ExpApr[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Table numbers">
+    <tableColumn id="6" name="May" totalsRowFunction="sum" totalsRowDxfId="79" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpMay[Amount],ExpMay[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Table numbers">
+    <tableColumn id="7" name="Jun" totalsRowFunction="sum" totalsRowDxfId="78" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJun[Amount],ExpJun[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="11" dataCellStyle="Table numbers">
+    <tableColumn id="8" name="Jul" totalsRowFunction="sum" totalsRowDxfId="77" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpJul[Amount],ExpJul[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="10" dataCellStyle="Table numbers">
+    <tableColumn id="9" name="Aug" totalsRowFunction="sum" totalsRowDxfId="76" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpAug[Amount],ExpAug[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="9" dataCellStyle="Table numbers">
+    <tableColumn id="10" name="Sep" totalsRowFunction="sum" totalsRowDxfId="75" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpSep[Amount],ExpSep[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Table numbers">
+    <tableColumn id="11" name="Oct" totalsRowFunction="sum" totalsRowDxfId="74" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpOct[Amount],ExpOct[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="7" dataCellStyle="Table numbers">
+    <tableColumn id="12" name="Nov" totalsRowFunction="sum" totalsRowDxfId="73" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpNov[Amount],ExpNov[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Table numbers">
+    <tableColumn id="13" name="Dec" totalsRowFunction="sum" totalsRowDxfId="72" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUMIFS(ExpDec[Amount],ExpDec[Category],ExpenseSummary[[#This Row],[Expenses]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="5" dataCellStyle="Table numbers">
+    <tableColumn id="14" name="Total" totalsRowFunction="sum" totalsRowDxfId="71" dataCellStyle="Table numbers">
       <calculatedColumnFormula>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="Trend" dataCellStyle="Normal"/>
@@ -8774,11 +8774,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="ExpSep" displayName="ExpSep" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="42" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="41" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="40" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="37" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="28" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="27" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="26" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="23" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8793,11 +8793,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ExpOct" displayName="ExpOct" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="36" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="35" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="34" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="31" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="22" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="21" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="20" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="17" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8812,11 +8812,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ExpNov" displayName="ExpNov" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="30" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="29" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="28" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="25" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="16" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="15" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="11" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8831,11 +8831,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ExpDec" displayName="ExpDec" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="24" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="23" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="22" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="19" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="10" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="9" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="5" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8850,11 +8850,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ExpJan" displayName="ExpJan" ref="A2:E100" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E99"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="84" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="83" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="82" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" totalsRowDxfId="81" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="80" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="70" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="69" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="68" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" totalsRowDxfId="67" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="66" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8872,7 +8872,7 @@
     <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="4" dataCellStyle="Table date"/>
     <tableColumn id="2" name="PO#" totalsRowDxfId="3" dataCellStyle="Table details"/>
     <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="79" totalsRowDxfId="1" dataCellStyle="Table details"/>
+    <tableColumn id="4" name="Category" dataDxfId="65" totalsRowDxfId="1" dataCellStyle="Table details"/>
     <tableColumn id="5" name="Description" totalsRowDxfId="0" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
@@ -8888,11 +8888,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ExpMar" displayName="ExpMar" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="78" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="77" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="76" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="73" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="64" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="63" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="62" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="59" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8907,11 +8907,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ExpApr" displayName="ExpApr" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="72" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="71" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="70" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="67" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="58" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="57" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="56" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="53" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8926,11 +8926,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ExpMay" displayName="ExpMay" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="66" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="65" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="64" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="61" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="52" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="51" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="50" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="47" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8945,11 +8945,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ExpJun" displayName="ExpJun" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="60" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="59" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="58" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="55" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="46" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="45" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="44" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="41" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8964,11 +8964,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ExpJul" displayName="ExpJul" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="54" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="53" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="52" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="49" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="40" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="39" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="38" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="35" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8983,11 +8983,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ExpAug" displayName="ExpAug" ref="A2:E12" totalsRowCount="1" headerRowCellStyle="Heading 2">
   <autoFilter ref="A2:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="48" dataCellStyle="Table date"/>
-    <tableColumn id="2" name="PO#" totalsRowDxfId="47" dataCellStyle="Table details"/>
-    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="46" dataCellStyle="Table numbers"/>
-    <tableColumn id="4" name="Category" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Table details"/>
-    <tableColumn id="5" name="Description" totalsRowDxfId="43" dataCellStyle="Table details"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" totalsRowDxfId="34" dataCellStyle="Table date"/>
+    <tableColumn id="2" name="PO#" totalsRowDxfId="33" dataCellStyle="Table details"/>
+    <tableColumn id="3" name="Amount" totalsRowFunction="sum" totalsRowDxfId="32" dataCellStyle="Table numbers"/>
+    <tableColumn id="4" name="Category" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Table details"/>
+    <tableColumn id="5" name="Description" totalsRowDxfId="29" dataCellStyle="Table details"/>
   </tableColumns>
   <tableStyleInfo name="Summary Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -9367,11 +9367,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -9569,11 +9569,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -9771,11 +9771,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -9973,11 +9973,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -10175,11 +10175,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -10366,8 +10366,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="C19" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>3486</v>
+        <v>3831</v>
       </c>
       <c r="D19" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="N19" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>5406</v>
+        <v>5751</v>
       </c>
       <c r="O19" s="24"/>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="C20" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="D20" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="N20" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>3310</v>
+        <v>3340</v>
       </c>
       <c r="O20" s="24"/>
     </row>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="C22" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D22" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="N22" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>1087</v>
+        <v>1273</v>
       </c>
       <c r="O22" s="24"/>
     </row>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="C23" s="22">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>1926</v>
+        <v>3571</v>
       </c>
       <c r="D23" s="22">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="N23" s="22">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>6429</v>
+        <v>8074</v>
       </c>
       <c r="O23" s="24"/>
     </row>
@@ -11583,7 +11583,7 @@
       </c>
       <c r="C24" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>204</v>
+        <v>740</v>
       </c>
       <c r="D24" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="N24" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>715</v>
+        <v>1251</v>
       </c>
       <c r="O24" s="29"/>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C32" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>1855</v>
+        <v>2129</v>
       </c>
       <c r="D32" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="N32" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>2696</v>
+        <v>2970</v>
       </c>
       <c r="O32" s="29"/>
     </row>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="C36" s="28">
         <f>SUMIFS(ExpFeb[Amount],ExpFeb[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
-        <v>8700</v>
+        <v>9600</v>
       </c>
       <c r="D36" s="28">
         <f>SUMIFS(ExpMar[Amount],ExpMar[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -12323,13 +12323,13 @@
       </c>
       <c r="N36" s="28">
         <f>SUM(ExpenseSummary[[#This Row],[Jan]:[Dec]])</f>
-        <v>8700</v>
+        <v>9600</v>
       </c>
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="28">
         <f>SUMIFS(ExpJan[Amount],ExpJan[Category],ExpenseSummary[[#This Row],[Expenses]])</f>
@@ -12386,60 +12386,60 @@
       <c r="O37" s="29"/>
     </row>
     <row r="38" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Jan])</f>
         <v>97052.800000000003</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Feb])</f>
-        <v>129542</v>
-      </c>
-      <c r="D38" s="38">
+        <v>133458</v>
+      </c>
+      <c r="D38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Mar])</f>
         <v>0</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Apr])</f>
         <v>0</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[May])</f>
         <v>0</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Jun])</f>
         <v>0</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Jul])</f>
         <v>0</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Aug])</f>
         <v>0</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Sep])</f>
         <v>0</v>
       </c>
-      <c r="K38" s="38">
+      <c r="K38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Oct])</f>
         <v>0</v>
       </c>
-      <c r="L38" s="38">
+      <c r="L38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Nov])</f>
         <v>0</v>
       </c>
-      <c r="M38" s="38">
+      <c r="M38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Dec])</f>
         <v>0</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="36">
         <f>SUBTOTAL(109,ExpenseSummary[Total])</f>
-        <v>226594.8</v>
+        <v>230510.8</v>
       </c>
     </row>
   </sheetData>
@@ -12496,6 +12496,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>summary!B38:M38</xm:f>
+              <xm:sqref>O38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" last="1" negative="1">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="6" tint="-0.499984740745262"/>
@@ -12640,22 +12656,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="7"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>summary!B38:M38</xm:f>
-              <xm:sqref>O38</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -12681,11 +12681,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
@@ -14492,8 +14492,8 @@
   </sheetPr>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14503,11 +14503,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>118</v>
       </c>
       <c r="C38" s="28">
-        <v>331</v>
+        <v>731</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>62</v>
@@ -15286,7 +15286,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15301,10 +15301,10 @@
         <v>200</v>
       </c>
       <c r="D46" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="30" t="s">
         <v>184</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15340,7 +15340,7 @@
         <v>135</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15355,10 +15355,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15470,66 +15470,151 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="A56" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,24)</f>
+        <v>43155</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="28">
+        <v>36</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,24)</f>
+        <v>43155</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="28">
+        <v>186</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="27"/>
+      <c r="A58" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,24)</f>
+        <v>43155</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="28">
+        <v>1065</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="27"/>
+      <c r="A59" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,25)</f>
+        <v>43156</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="28">
+        <v>900</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="E59" s="27"/>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="27"/>
+      <c r="A60" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,25)</f>
+        <v>43156</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="28">
+        <v>580</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="E60" s="27"/>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="27"/>
+      <c r="A61" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,25)</f>
+        <v>43156</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="28">
+        <v>30</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="E61" s="27"/>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="27"/>
+      <c r="A62" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,25)</f>
+        <v>43156</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="28">
+        <v>109</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>135</v>
+      </c>
       <c r="E62" s="27"/>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="A63" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,25)</f>
+        <v>43156</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="28">
+        <v>110</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="27"/>
+      <c r="A64" s="26">
+        <f ca="1">DATE(YEAR(TODAY()),2,25)</f>
+        <v>43156</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="28">
+        <v>500</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="E64" s="27"/>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15666,13 +15751,13 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="32">
         <f>SUBTOTAL(109,ExpFeb[Amount])</f>
-        <v>129542</v>
+        <v>133458</v>
       </c>
       <c r="D84" s="31"/>
       <c r="E84" s="31"/>
@@ -15735,11 +15820,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -15937,11 +16022,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
@@ -16139,11 +16224,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -16341,11 +16426,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
@@ -16543,11 +16628,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
